--- a/tests/data/diagnosis_summary.xlsx
+++ b/tests/data/diagnosis_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="475">
   <si>
     <t>bert_models/pytorch-bert-base/steptime_train_float32</t>
   </si>
@@ -1412,6 +1412,12 @@
     <t>sb-validation-03</t>
   </si>
   <si>
+    <t>sb-validation-04</t>
+  </si>
+  <si>
+    <t>sb-validation-05</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
@@ -1424,10 +1430,16 @@
     <t>FailedTest,Mem</t>
   </si>
   <si>
+    <t>CNN</t>
+  </si>
+  <si>
     <t>kernel-launch/event_overhead:0(B/L: 0.0060 VAL: 0.1000 VAR: 1577.85% Rule:lambda x:x&gt;0.05)</t>
   </si>
   <si>
     <t>mem-bw/D2H_Mem_BW:0_miss,mem-bw/D2H_Mem_BW:1_miss,mem-bw/D2H_Mem_BW:2_miss,mem-bw/D2H_Mem_BW:3_miss,mem-bw/D2H_Mem_BW:4_miss,mem-bw/D2H_Mem_BW:5_miss,mem-bw/D2H_Mem_BW:6_miss,mem-bw/D2H_Mem_BW:7_miss,mem-bw/H2D_Mem_BW:0_miss,mem-bw/H2D_Mem_BW:1_miss,mem-bw/H2D_Mem_BW:2_miss,mem-bw/H2D_Mem_BW:3_miss,mem-bw/H2D_Mem_BW:4_miss,mem-bw/H2D_Mem_BW:5_miss,mem-bw/H2D_Mem_BW:6_miss,mem-bw/H2D_Mem_BW:7_miss,mem-bw/return_code(VAL: 1.0000 Rule:lambda x:x&gt;0)</t>
+  </si>
+  <si>
+    <t>resnet_models/pytorch-resnet152/throughput_train_float16(B/L: 454.8336 VAL: 100.0000 VAR: -78.01% Rule:lambda x:x&lt;-0.05),vgg_models/pytorch-vgg19/throughput_train_float32(B/L: 429.8092 VAL: 100.0000 VAR: -76.73% Rule:lambda x:x&lt;-0.05)</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:QU4"/>
+  <dimension ref="A1:QU6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7291,6 +7303,2788 @@
         <v>45.20330624654889</v>
       </c>
       <c r="QU4">
+        <v>709.1127328377091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:463">
+      <c r="A5" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5">
+        <v>114.5916701061651</v>
+      </c>
+      <c r="C5">
+        <v>279.8794623591105</v>
+      </c>
+      <c r="D5">
+        <v>83.88951083179563</v>
+      </c>
+      <c r="E5">
+        <v>382.0672582741963</v>
+      </c>
+      <c r="F5">
+        <v>307.9359371913597</v>
+      </c>
+      <c r="G5">
+        <v>103.9487609741763</v>
+      </c>
+      <c r="H5">
+        <v>206.8114168941975</v>
+      </c>
+      <c r="I5">
+        <v>154.8408911711394</v>
+      </c>
+      <c r="J5">
+        <v>44.18220621437285</v>
+      </c>
+      <c r="K5">
+        <v>44.18221393893873</v>
+      </c>
+      <c r="L5">
+        <v>43.97014707808466</v>
+      </c>
+      <c r="M5">
+        <v>43.97014787559783</v>
+      </c>
+      <c r="N5">
+        <v>43.97017793166924</v>
+      </c>
+      <c r="O5">
+        <v>43.97015716062924</v>
+      </c>
+      <c r="P5">
+        <v>43.97016519828867</v>
+      </c>
+      <c r="Q5">
+        <v>44.17954447853845</v>
+      </c>
+      <c r="R5">
+        <v>137.0477370555818</v>
+      </c>
+      <c r="S5">
+        <v>137.0478344692856</v>
+      </c>
+      <c r="T5">
+        <v>137.04777220903</v>
+      </c>
+      <c r="U5">
+        <v>137.047796972638</v>
+      </c>
+      <c r="V5">
+        <v>137.0481367431466</v>
+      </c>
+      <c r="W5">
+        <v>137.0482198876743</v>
+      </c>
+      <c r="X5">
+        <v>137.0477532236691</v>
+      </c>
+      <c r="Y5">
+        <v>137.0478081606734</v>
+      </c>
+      <c r="Z5">
+        <v>150.6415554322302</v>
+      </c>
+      <c r="AA5">
+        <v>212.4701719242531</v>
+      </c>
+      <c r="AB5">
+        <v>145.30819572974</v>
+      </c>
+      <c r="AC5">
+        <v>220.293233730535</v>
+      </c>
+      <c r="AD5">
+        <v>182.9111778642982</v>
+      </c>
+      <c r="AE5">
+        <v>174.9742278232251</v>
+      </c>
+      <c r="AF5">
+        <v>176.3489063596353</v>
+      </c>
+      <c r="AG5">
+        <v>181.544657360339</v>
+      </c>
+      <c r="AH5">
+        <v>9031.23</v>
+      </c>
+      <c r="AI5">
+        <v>9040.85</v>
+      </c>
+      <c r="AJ5">
+        <v>9010.559999999999</v>
+      </c>
+      <c r="AK5">
+        <v>9041.26</v>
+      </c>
+      <c r="AL5">
+        <v>9039.190000000001</v>
+      </c>
+      <c r="AM5">
+        <v>9015.690000000001</v>
+      </c>
+      <c r="AN5">
+        <v>9022.190000000001</v>
+      </c>
+      <c r="AO5">
+        <v>9030.200000000001</v>
+      </c>
+      <c r="AP5">
+        <v>18362.1</v>
+      </c>
+      <c r="AQ5">
+        <v>18375.6</v>
+      </c>
+      <c r="AR5">
+        <v>18314.9</v>
+      </c>
+      <c r="AS5">
+        <v>18375.6</v>
+      </c>
+      <c r="AT5">
+        <v>18368.6</v>
+      </c>
+      <c r="AU5">
+        <v>18347.1</v>
+      </c>
+      <c r="AV5">
+        <v>18247.4</v>
+      </c>
+      <c r="AW5">
+        <v>18318.4</v>
+      </c>
+      <c r="AX5">
+        <v>33878</v>
+      </c>
+      <c r="AY5">
+        <v>33911.1</v>
+      </c>
+      <c r="AZ5">
+        <v>33769.3</v>
+      </c>
+      <c r="BA5">
+        <v>33909.9</v>
+      </c>
+      <c r="BB5">
+        <v>33896.5</v>
+      </c>
+      <c r="BC5">
+        <v>33798.1</v>
+      </c>
+      <c r="BD5">
+        <v>33647.3</v>
+      </c>
+      <c r="BE5">
+        <v>33764.8</v>
+      </c>
+      <c r="BF5">
+        <v>18963.6</v>
+      </c>
+      <c r="BG5">
+        <v>18924.2</v>
+      </c>
+      <c r="BH5">
+        <v>18930.3</v>
+      </c>
+      <c r="BI5">
+        <v>18971.9</v>
+      </c>
+      <c r="BJ5">
+        <v>18946</v>
+      </c>
+      <c r="BK5">
+        <v>18945</v>
+      </c>
+      <c r="BL5">
+        <v>18822.9</v>
+      </c>
+      <c r="BM5">
+        <v>18911.1</v>
+      </c>
+      <c r="BN5">
+        <v>127900</v>
+      </c>
+      <c r="BO5">
+        <v>129094</v>
+      </c>
+      <c r="BP5">
+        <v>127831</v>
+      </c>
+      <c r="BQ5">
+        <v>128709</v>
+      </c>
+      <c r="BR5">
+        <v>127388</v>
+      </c>
+      <c r="BS5">
+        <v>127861</v>
+      </c>
+      <c r="BT5">
+        <v>128492</v>
+      </c>
+      <c r="BU5">
+        <v>127720</v>
+      </c>
+      <c r="BV5">
+        <v>264965</v>
+      </c>
+      <c r="BW5">
+        <v>266638</v>
+      </c>
+      <c r="BX5">
+        <v>263151</v>
+      </c>
+      <c r="BY5">
+        <v>264752</v>
+      </c>
+      <c r="BZ5">
+        <v>263049</v>
+      </c>
+      <c r="CA5">
+        <v>266605</v>
+      </c>
+      <c r="CB5">
+        <v>267501</v>
+      </c>
+      <c r="CC5">
+        <v>263880</v>
+      </c>
+      <c r="CD5">
+        <v>279474</v>
+      </c>
+      <c r="CE5">
+        <v>281256</v>
+      </c>
+      <c r="CF5">
+        <v>277403</v>
+      </c>
+      <c r="CG5">
+        <v>279147</v>
+      </c>
+      <c r="CH5">
+        <v>277587</v>
+      </c>
+      <c r="CI5">
+        <v>281537</v>
+      </c>
+      <c r="CJ5">
+        <v>282132</v>
+      </c>
+      <c r="CK5">
+        <v>277788</v>
+      </c>
+      <c r="CL5">
+        <v>475160</v>
+      </c>
+      <c r="CM5">
+        <v>477725</v>
+      </c>
+      <c r="CN5">
+        <v>471621</v>
+      </c>
+      <c r="CO5">
+        <v>473716</v>
+      </c>
+      <c r="CP5">
+        <v>472124</v>
+      </c>
+      <c r="CQ5">
+        <v>479972</v>
+      </c>
+      <c r="CR5">
+        <v>481327</v>
+      </c>
+      <c r="CS5">
+        <v>474710</v>
+      </c>
+      <c r="CT5">
+        <v>970330</v>
+      </c>
+      <c r="CU5">
+        <v>976837</v>
+      </c>
+      <c r="CV5">
+        <v>966003</v>
+      </c>
+      <c r="CW5">
+        <v>971315</v>
+      </c>
+      <c r="CX5">
+        <v>964441</v>
+      </c>
+      <c r="CY5">
+        <v>982461</v>
+      </c>
+      <c r="CZ5">
+        <v>979610</v>
+      </c>
+      <c r="DA5">
+        <v>968359</v>
+      </c>
+      <c r="DB5">
+        <v>295.0526971835643</v>
+      </c>
+      <c r="DC5">
+        <v>27.11545439686649</v>
+      </c>
+      <c r="DD5">
+        <v>194.4957742234692</v>
+      </c>
+      <c r="DE5">
+        <v>41.13944994106159</v>
+      </c>
+      <c r="DF5">
+        <v>3.91755</v>
+      </c>
+      <c r="DG5">
+        <v>4.45414</v>
+      </c>
+      <c r="DH5">
+        <v>1.26483</v>
+      </c>
+      <c r="DI5">
+        <v>1.30041</v>
+      </c>
+      <c r="DJ5">
+        <v>1.31577</v>
+      </c>
+      <c r="DK5">
+        <v>1.27968</v>
+      </c>
+      <c r="DL5">
+        <v>4.47849</v>
+      </c>
+      <c r="DM5">
+        <v>3.96231</v>
+      </c>
+      <c r="DN5">
+        <v>3.91705</v>
+      </c>
+      <c r="DO5">
+        <v>4.45487</v>
+      </c>
+      <c r="DP5">
+        <v>1.26352</v>
+      </c>
+      <c r="DQ5">
+        <v>1.2999</v>
+      </c>
+      <c r="DR5">
+        <v>1.31677</v>
+      </c>
+      <c r="DS5">
+        <v>1.27885</v>
+      </c>
+      <c r="DT5">
+        <v>4.47913</v>
+      </c>
+      <c r="DU5">
+        <v>3.95893</v>
+      </c>
+      <c r="DV5">
+        <v>3.91729</v>
+      </c>
+      <c r="DW5">
+        <v>4.45627</v>
+      </c>
+      <c r="DX5">
+        <v>1.26437</v>
+      </c>
+      <c r="DY5">
+        <v>1.30144</v>
+      </c>
+      <c r="DZ5">
+        <v>1.31704</v>
+      </c>
+      <c r="EA5">
+        <v>1.27857</v>
+      </c>
+      <c r="EB5">
+        <v>4.47889</v>
+      </c>
+      <c r="EC5">
+        <v>3.95984</v>
+      </c>
+      <c r="ED5">
+        <v>3.92025</v>
+      </c>
+      <c r="EE5">
+        <v>4.45423</v>
+      </c>
+      <c r="EF5">
+        <v>1.26449</v>
+      </c>
+      <c r="EG5">
+        <v>1.29954</v>
+      </c>
+      <c r="EH5">
+        <v>1.31731</v>
+      </c>
+      <c r="EI5">
+        <v>1.27916</v>
+      </c>
+      <c r="EJ5">
+        <v>4.4797</v>
+      </c>
+      <c r="EK5">
+        <v>3.96124</v>
+      </c>
+      <c r="EL5">
+        <v>23.9685</v>
+      </c>
+      <c r="EM5">
+        <v>23.967</v>
+      </c>
+      <c r="EN5">
+        <v>19.9898</v>
+      </c>
+      <c r="EO5">
+        <v>20.2848</v>
+      </c>
+      <c r="EP5">
+        <v>20.3931</v>
+      </c>
+      <c r="EQ5">
+        <v>20.0888</v>
+      </c>
+      <c r="ER5">
+        <v>23.9766</v>
+      </c>
+      <c r="ES5">
+        <v>23.9792</v>
+      </c>
+      <c r="ET5">
+        <v>23.9497</v>
+      </c>
+      <c r="EU5">
+        <v>23.9438</v>
+      </c>
+      <c r="EV5">
+        <v>20.0039</v>
+      </c>
+      <c r="EW5">
+        <v>20.2469</v>
+      </c>
+      <c r="EX5">
+        <v>20.4344</v>
+      </c>
+      <c r="EY5">
+        <v>20.1005</v>
+      </c>
+      <c r="EZ5">
+        <v>23.9491</v>
+      </c>
+      <c r="FA5">
+        <v>23.9898</v>
+      </c>
+      <c r="FB5">
+        <v>23.962</v>
+      </c>
+      <c r="FC5">
+        <v>23.97</v>
+      </c>
+      <c r="FD5">
+        <v>19.987</v>
+      </c>
+      <c r="FE5">
+        <v>20.1549</v>
+      </c>
+      <c r="FF5">
+        <v>20.3931</v>
+      </c>
+      <c r="FG5">
+        <v>20.1013</v>
+      </c>
+      <c r="FH5">
+        <v>23.9865</v>
+      </c>
+      <c r="FI5">
+        <v>23.972</v>
+      </c>
+      <c r="FJ5">
+        <v>23.9569</v>
+      </c>
+      <c r="FK5">
+        <v>23.9762</v>
+      </c>
+      <c r="FL5">
+        <v>19.92</v>
+      </c>
+      <c r="FM5">
+        <v>20.2638</v>
+      </c>
+      <c r="FN5">
+        <v>20.4419</v>
+      </c>
+      <c r="FO5">
+        <v>20.1054</v>
+      </c>
+      <c r="FP5">
+        <v>23.9752</v>
+      </c>
+      <c r="FQ5">
+        <v>23.9631</v>
+      </c>
+      <c r="FR5">
+        <v>1492.89</v>
+      </c>
+      <c r="FS5">
+        <v>3224.92</v>
+      </c>
+      <c r="FT5">
+        <v>6714.5</v>
+      </c>
+      <c r="FU5">
+        <v>12871.93</v>
+      </c>
+      <c r="FV5">
+        <v>19990.78</v>
+      </c>
+      <c r="FW5">
+        <v>22172.25</v>
+      </c>
+      <c r="FX5">
+        <v>23073.19</v>
+      </c>
+      <c r="FY5">
+        <v>23527.09</v>
+      </c>
+      <c r="FZ5">
+        <v>23805.92</v>
+      </c>
+      <c r="GA5">
+        <v>23380.51</v>
+      </c>
+      <c r="GB5">
+        <v>23856.63</v>
+      </c>
+      <c r="GC5">
+        <v>23869.58</v>
+      </c>
+      <c r="GD5">
+        <v>23885.7</v>
+      </c>
+      <c r="GE5">
+        <v>23914.56</v>
+      </c>
+      <c r="GF5">
+        <v>23935.21</v>
+      </c>
+      <c r="GG5">
+        <v>1479.1</v>
+      </c>
+      <c r="GH5">
+        <v>3246.48</v>
+      </c>
+      <c r="GI5">
+        <v>6754.94</v>
+      </c>
+      <c r="GJ5">
+        <v>13101.09</v>
+      </c>
+      <c r="GK5">
+        <v>19945.81</v>
+      </c>
+      <c r="GL5">
+        <v>22631.62</v>
+      </c>
+      <c r="GM5">
+        <v>23381.58</v>
+      </c>
+      <c r="GN5">
+        <v>23515.29</v>
+      </c>
+      <c r="GO5">
+        <v>23756.01</v>
+      </c>
+      <c r="GP5">
+        <v>23875.91</v>
+      </c>
+      <c r="GQ5">
+        <v>23911.13</v>
+      </c>
+      <c r="GR5">
+        <v>23935.42</v>
+      </c>
+      <c r="GS5">
+        <v>23941.25</v>
+      </c>
+      <c r="GT5">
+        <v>23922.06</v>
+      </c>
+      <c r="GU5">
+        <v>23928.59</v>
+      </c>
+      <c r="GV5">
+        <v>1505.29</v>
+      </c>
+      <c r="GW5">
+        <v>3215.97</v>
+      </c>
+      <c r="GX5">
+        <v>6745.49</v>
+      </c>
+      <c r="GY5">
+        <v>11548.88</v>
+      </c>
+      <c r="GZ5">
+        <v>19432.15</v>
+      </c>
+      <c r="HA5">
+        <v>22765.51</v>
+      </c>
+      <c r="HB5">
+        <v>23235.07</v>
+      </c>
+      <c r="HC5">
+        <v>23620.08</v>
+      </c>
+      <c r="HD5">
+        <v>23759.08</v>
+      </c>
+      <c r="HE5">
+        <v>23859.82</v>
+      </c>
+      <c r="HF5">
+        <v>23775.01</v>
+      </c>
+      <c r="HG5">
+        <v>23885.96</v>
+      </c>
+      <c r="HH5">
+        <v>23894.73</v>
+      </c>
+      <c r="HI5">
+        <v>23909.98</v>
+      </c>
+      <c r="HJ5">
+        <v>23927.21</v>
+      </c>
+      <c r="HK5">
+        <v>1474.47</v>
+      </c>
+      <c r="HL5">
+        <v>3344.68</v>
+      </c>
+      <c r="HM5">
+        <v>6606.35</v>
+      </c>
+      <c r="HN5">
+        <v>12071.4</v>
+      </c>
+      <c r="HO5">
+        <v>18408.33</v>
+      </c>
+      <c r="HP5">
+        <v>20789.27</v>
+      </c>
+      <c r="HQ5">
+        <v>22469.43</v>
+      </c>
+      <c r="HR5">
+        <v>22777.1</v>
+      </c>
+      <c r="HS5">
+        <v>23461.03</v>
+      </c>
+      <c r="HT5">
+        <v>23397.19</v>
+      </c>
+      <c r="HU5">
+        <v>23526.55</v>
+      </c>
+      <c r="HV5">
+        <v>23854.76</v>
+      </c>
+      <c r="HW5">
+        <v>23862.23</v>
+      </c>
+      <c r="HX5">
+        <v>23931.15</v>
+      </c>
+      <c r="HY5">
+        <v>23924.44</v>
+      </c>
+      <c r="HZ5">
+        <v>1523.33</v>
+      </c>
+      <c r="IA5">
+        <v>3233.23</v>
+      </c>
+      <c r="IB5">
+        <v>6792.88</v>
+      </c>
+      <c r="IC5">
+        <v>12616.05</v>
+      </c>
+      <c r="ID5">
+        <v>19324.05</v>
+      </c>
+      <c r="IE5">
+        <v>22082.51</v>
+      </c>
+      <c r="IF5">
+        <v>23294.23</v>
+      </c>
+      <c r="IG5">
+        <v>23546.22</v>
+      </c>
+      <c r="IH5">
+        <v>23727.91</v>
+      </c>
+      <c r="II5">
+        <v>23843.93</v>
+      </c>
+      <c r="IJ5">
+        <v>23905.96</v>
+      </c>
+      <c r="IK5">
+        <v>23902.37</v>
+      </c>
+      <c r="IL5">
+        <v>23921.03</v>
+      </c>
+      <c r="IM5">
+        <v>23921.06</v>
+      </c>
+      <c r="IN5">
+        <v>23922.4</v>
+      </c>
+      <c r="IO5">
+        <v>1506.63</v>
+      </c>
+      <c r="IP5">
+        <v>3261.71</v>
+      </c>
+      <c r="IQ5">
+        <v>6752.38</v>
+      </c>
+      <c r="IR5">
+        <v>13592.41</v>
+      </c>
+      <c r="IS5">
+        <v>19989.31</v>
+      </c>
+      <c r="IT5">
+        <v>22560.57</v>
+      </c>
+      <c r="IU5">
+        <v>23389.29</v>
+      </c>
+      <c r="IV5">
+        <v>23503.32</v>
+      </c>
+      <c r="IW5">
+        <v>23741.51</v>
+      </c>
+      <c r="IX5">
+        <v>23866.43</v>
+      </c>
+      <c r="IY5">
+        <v>23898.95</v>
+      </c>
+      <c r="IZ5">
+        <v>23876.36</v>
+      </c>
+      <c r="JA5">
+        <v>23919.63</v>
+      </c>
+      <c r="JB5">
+        <v>23924.68</v>
+      </c>
+      <c r="JC5">
+        <v>23930.37</v>
+      </c>
+      <c r="JD5">
+        <v>1467.69</v>
+      </c>
+      <c r="JE5">
+        <v>3157.04</v>
+      </c>
+      <c r="JF5">
+        <v>6494.61</v>
+      </c>
+      <c r="JG5">
+        <v>12883.51</v>
+      </c>
+      <c r="JH5">
+        <v>19207.67</v>
+      </c>
+      <c r="JI5">
+        <v>22519.39</v>
+      </c>
+      <c r="JJ5">
+        <v>23323.46</v>
+      </c>
+      <c r="JK5">
+        <v>23523.6</v>
+      </c>
+      <c r="JL5">
+        <v>23626.67</v>
+      </c>
+      <c r="JM5">
+        <v>23836.99</v>
+      </c>
+      <c r="JN5">
+        <v>23904.51</v>
+      </c>
+      <c r="JO5">
+        <v>23919.07</v>
+      </c>
+      <c r="JP5">
+        <v>23943.82</v>
+      </c>
+      <c r="JQ5">
+        <v>23936.77</v>
+      </c>
+      <c r="JR5">
+        <v>23941.57</v>
+      </c>
+      <c r="JS5">
+        <v>1505.63</v>
+      </c>
+      <c r="JT5">
+        <v>3259.93</v>
+      </c>
+      <c r="JU5">
+        <v>6738.6</v>
+      </c>
+      <c r="JV5">
+        <v>13352.06</v>
+      </c>
+      <c r="JW5">
+        <v>19941.35</v>
+      </c>
+      <c r="JX5">
+        <v>22566.09</v>
+      </c>
+      <c r="JY5">
+        <v>23244.77</v>
+      </c>
+      <c r="JZ5">
+        <v>23377.67</v>
+      </c>
+      <c r="KA5">
+        <v>23736.17</v>
+      </c>
+      <c r="KB5">
+        <v>23829.25</v>
+      </c>
+      <c r="KC5">
+        <v>23879.6</v>
+      </c>
+      <c r="KD5">
+        <v>23895.1</v>
+      </c>
+      <c r="KE5">
+        <v>23930.64</v>
+      </c>
+      <c r="KF5">
+        <v>23845.63</v>
+      </c>
+      <c r="KG5">
+        <v>23896.94</v>
+      </c>
+      <c r="KH5">
+        <v>0</v>
+      </c>
+      <c r="KI5">
+        <v>0.00595</v>
+      </c>
+      <c r="KJ5">
+        <v>0.00595</v>
+      </c>
+      <c r="KK5">
+        <v>0.00557</v>
+      </c>
+      <c r="KL5">
+        <v>0.0055</v>
+      </c>
+      <c r="KM5">
+        <v>0.00592</v>
+      </c>
+      <c r="KN5">
+        <v>0.00589</v>
+      </c>
+      <c r="KO5">
+        <v>0.00572</v>
+      </c>
+      <c r="KP5">
+        <v>0.0059</v>
+      </c>
+      <c r="KQ5">
+        <v>0.01026</v>
+      </c>
+      <c r="KR5">
+        <v>0.01026</v>
+      </c>
+      <c r="KS5">
+        <v>0.01046</v>
+      </c>
+      <c r="KT5">
+        <v>0.01049</v>
+      </c>
+      <c r="KU5">
+        <v>0.01063</v>
+      </c>
+      <c r="KV5">
+        <v>0.01006</v>
+      </c>
+      <c r="KW5">
+        <v>0.01045</v>
+      </c>
+      <c r="KX5">
+        <v>0.01071</v>
+      </c>
+      <c r="KY5">
+        <v>48.07024518959224</v>
+      </c>
+      <c r="KZ5">
+        <v>4806.472441132788</v>
+      </c>
+      <c r="LA5">
+        <v>25.95312986522913</v>
+      </c>
+      <c r="LB5">
+        <v>9069.90809255883</v>
+      </c>
+      <c r="LC5">
+        <v>34.64499759674072</v>
+      </c>
+      <c r="LD5">
+        <v>0</v>
+      </c>
+      <c r="LE5">
+        <v>25.6</v>
+      </c>
+      <c r="LF5">
+        <v>25.8</v>
+      </c>
+      <c r="LG5">
+        <v>26</v>
+      </c>
+      <c r="LH5">
+        <v>26.1</v>
+      </c>
+      <c r="LI5">
+        <v>26.2</v>
+      </c>
+      <c r="LJ5">
+        <v>25.8</v>
+      </c>
+      <c r="LK5">
+        <v>25.3</v>
+      </c>
+      <c r="LL5">
+        <v>26.1</v>
+      </c>
+      <c r="LM5">
+        <v>24.3</v>
+      </c>
+      <c r="LN5">
+        <v>24.6</v>
+      </c>
+      <c r="LO5">
+        <v>24.5</v>
+      </c>
+      <c r="LP5">
+        <v>24.6</v>
+      </c>
+      <c r="LQ5">
+        <v>24.3</v>
+      </c>
+      <c r="LR5">
+        <v>24.3</v>
+      </c>
+      <c r="LS5">
+        <v>23.9</v>
+      </c>
+      <c r="LT5">
+        <v>24.6</v>
+      </c>
+      <c r="LU5">
+        <v>1118</v>
+      </c>
+      <c r="LV5">
+        <v>1114.6</v>
+      </c>
+      <c r="LW5">
+        <v>1119.7</v>
+      </c>
+      <c r="LX5">
+        <v>1121.9</v>
+      </c>
+      <c r="LY5">
+        <v>1109.7</v>
+      </c>
+      <c r="LZ5">
+        <v>1110.1</v>
+      </c>
+      <c r="MA5">
+        <v>1123.3</v>
+      </c>
+      <c r="MB5">
+        <v>1117.6</v>
+      </c>
+      <c r="MC5">
+        <v>0</v>
+      </c>
+      <c r="MD5">
+        <v>0</v>
+      </c>
+      <c r="ME5">
+        <v>37.84</v>
+      </c>
+      <c r="MF5">
+        <v>0</v>
+      </c>
+      <c r="MG5">
+        <v>0</v>
+      </c>
+      <c r="MH5">
+        <v>36.42</v>
+      </c>
+      <c r="MI5">
+        <v>0</v>
+      </c>
+      <c r="MJ5">
+        <v>0</v>
+      </c>
+      <c r="MK5">
+        <v>36.87</v>
+      </c>
+      <c r="ML5">
+        <v>0</v>
+      </c>
+      <c r="MM5">
+        <v>0</v>
+      </c>
+      <c r="MN5">
+        <v>35.83</v>
+      </c>
+      <c r="MO5">
+        <v>0.01</v>
+      </c>
+      <c r="MP5">
+        <v>0</v>
+      </c>
+      <c r="MQ5">
+        <v>36.91</v>
+      </c>
+      <c r="MR5">
+        <v>0.01</v>
+      </c>
+      <c r="MS5">
+        <v>0.01</v>
+      </c>
+      <c r="MT5">
+        <v>37.58</v>
+      </c>
+      <c r="MU5">
+        <v>0.02</v>
+      </c>
+      <c r="MV5">
+        <v>0.01</v>
+      </c>
+      <c r="MW5">
+        <v>36.98</v>
+      </c>
+      <c r="MX5">
+        <v>0.05</v>
+      </c>
+      <c r="MY5">
+        <v>0.03</v>
+      </c>
+      <c r="MZ5">
+        <v>36.93</v>
+      </c>
+      <c r="NA5">
+        <v>0.1</v>
+      </c>
+      <c r="NB5">
+        <v>0.06</v>
+      </c>
+      <c r="NC5">
+        <v>36.06</v>
+      </c>
+      <c r="ND5">
+        <v>0.19</v>
+      </c>
+      <c r="NE5">
+        <v>0.11</v>
+      </c>
+      <c r="NF5">
+        <v>37.2</v>
+      </c>
+      <c r="NG5">
+        <v>0.39</v>
+      </c>
+      <c r="NH5">
+        <v>0.22</v>
+      </c>
+      <c r="NI5">
+        <v>37.04</v>
+      </c>
+      <c r="NJ5">
+        <v>0.77</v>
+      </c>
+      <c r="NK5">
+        <v>0.44</v>
+      </c>
+      <c r="NL5">
+        <v>37.46</v>
+      </c>
+      <c r="NM5">
+        <v>1.52</v>
+      </c>
+      <c r="NN5">
+        <v>0.87</v>
+      </c>
+      <c r="NO5">
+        <v>37.64</v>
+      </c>
+      <c r="NP5">
+        <v>3</v>
+      </c>
+      <c r="NQ5">
+        <v>1.71</v>
+      </c>
+      <c r="NR5">
+        <v>38.22</v>
+      </c>
+      <c r="NS5">
+        <v>5.31</v>
+      </c>
+      <c r="NT5">
+        <v>3.04</v>
+      </c>
+      <c r="NU5">
+        <v>43.17</v>
+      </c>
+      <c r="NV5">
+        <v>9.5</v>
+      </c>
+      <c r="NW5">
+        <v>5.43</v>
+      </c>
+      <c r="NX5">
+        <v>48.29</v>
+      </c>
+      <c r="NY5">
+        <v>15.11</v>
+      </c>
+      <c r="NZ5">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="OA5">
+        <v>60.71</v>
+      </c>
+      <c r="OB5">
+        <v>24.1</v>
+      </c>
+      <c r="OC5">
+        <v>13.77</v>
+      </c>
+      <c r="OD5">
+        <v>76.13</v>
+      </c>
+      <c r="OE5">
+        <v>38.12</v>
+      </c>
+      <c r="OF5">
+        <v>21.78</v>
+      </c>
+      <c r="OG5">
+        <v>96.28</v>
+      </c>
+      <c r="OH5">
+        <v>65.75</v>
+      </c>
+      <c r="OI5">
+        <v>37.57</v>
+      </c>
+      <c r="OJ5">
+        <v>111.6</v>
+      </c>
+      <c r="OK5">
+        <v>89.51000000000001</v>
+      </c>
+      <c r="OL5">
+        <v>51.15</v>
+      </c>
+      <c r="OM5">
+        <v>164</v>
+      </c>
+      <c r="ON5">
+        <v>114.38</v>
+      </c>
+      <c r="OO5">
+        <v>65.36</v>
+      </c>
+      <c r="OP5">
+        <v>256.7</v>
+      </c>
+      <c r="OQ5">
+        <v>154.89</v>
+      </c>
+      <c r="OR5">
+        <v>88.51000000000001</v>
+      </c>
+      <c r="OS5">
+        <v>379.1</v>
+      </c>
+      <c r="OT5">
+        <v>200.01</v>
+      </c>
+      <c r="OU5">
+        <v>114.29</v>
+      </c>
+      <c r="OV5">
+        <v>587.2</v>
+      </c>
+      <c r="OW5">
+        <v>202.97</v>
+      </c>
+      <c r="OX5">
+        <v>115.98</v>
+      </c>
+      <c r="OY5">
+        <v>1157.2</v>
+      </c>
+      <c r="OZ5">
+        <v>221.82</v>
+      </c>
+      <c r="PA5">
+        <v>126.75</v>
+      </c>
+      <c r="PB5">
+        <v>2117.8</v>
+      </c>
+      <c r="PC5">
+        <v>224.54</v>
+      </c>
+      <c r="PD5">
+        <v>128.31</v>
+      </c>
+      <c r="PE5">
+        <v>4184.2</v>
+      </c>
+      <c r="PF5">
+        <v>230.15</v>
+      </c>
+      <c r="PG5">
+        <v>131.51</v>
+      </c>
+      <c r="PH5">
+        <v>8164.5</v>
+      </c>
+      <c r="PI5">
+        <v>231.89</v>
+      </c>
+      <c r="PJ5">
+        <v>132.51</v>
+      </c>
+      <c r="PK5">
+        <v>16207</v>
+      </c>
+      <c r="PL5">
+        <v>234.45</v>
+      </c>
+      <c r="PM5">
+        <v>133.97</v>
+      </c>
+      <c r="PN5">
+        <v>32059</v>
+      </c>
+      <c r="PO5">
+        <v>235.36</v>
+      </c>
+      <c r="PP5">
+        <v>134.49</v>
+      </c>
+      <c r="PQ5">
+        <v>63870</v>
+      </c>
+      <c r="PR5">
+        <v>253.9552273228765</v>
+      </c>
+      <c r="PS5">
+        <v>760.3348099129964</v>
+      </c>
+      <c r="PT5">
+        <v>200.0860618427396</v>
+      </c>
+      <c r="PU5">
+        <v>971.0651430922575</v>
+      </c>
+      <c r="PV5">
+        <v>389.0860509127378</v>
+      </c>
+      <c r="PW5">
+        <v>496.1174740929897</v>
+      </c>
+      <c r="PX5">
+        <v>308.6274107918143</v>
+      </c>
+      <c r="PY5">
+        <v>627.2056272195069</v>
+      </c>
+      <c r="PZ5">
+        <v>547.6558278314769</v>
+      </c>
+      <c r="QA5">
+        <v>352.0709954334822</v>
+      </c>
+      <c r="QB5">
+        <v>424.5809856802225</v>
+      </c>
+      <c r="QC5">
+        <v>454.8335998153649</v>
+      </c>
+      <c r="QD5">
+        <v>10.57441186904907</v>
+      </c>
+      <c r="QE5">
+        <v>10.08469676971436</v>
+      </c>
+      <c r="QF5">
+        <v>40.35283671692014</v>
+      </c>
+      <c r="QG5">
+        <v>796.3615936949874</v>
+      </c>
+      <c r="QH5">
+        <v>24.13351484574378</v>
+      </c>
+      <c r="QI5">
+        <v>1330.411361458461</v>
+      </c>
+      <c r="QJ5">
+        <v>55.46631093602628</v>
+      </c>
+      <c r="QK5">
+        <v>580.234107444399</v>
+      </c>
+      <c r="QL5">
+        <v>33.35228993091732</v>
+      </c>
+      <c r="QM5">
+        <v>962.5332023901524</v>
+      </c>
+      <c r="QN5">
+        <v>65.22519944701344</v>
+      </c>
+      <c r="QO5">
+        <v>493.4268638875934</v>
+      </c>
+      <c r="QP5">
+        <v>39.25287735182792</v>
+      </c>
+      <c r="QQ5">
+        <v>817.2008546147621</v>
+      </c>
+      <c r="QR5">
+        <v>74.93487105239183</v>
+      </c>
+      <c r="QS5">
+        <v>100</v>
+      </c>
+      <c r="QT5">
+        <v>45.20330624654889</v>
+      </c>
+      <c r="QU5">
+        <v>709.1127328377091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:463">
+      <c r="A6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6">
+        <v>114.5916701061651</v>
+      </c>
+      <c r="C6">
+        <v>279.8794623591105</v>
+      </c>
+      <c r="D6">
+        <v>83.88951083179563</v>
+      </c>
+      <c r="E6">
+        <v>382.0672582741963</v>
+      </c>
+      <c r="F6">
+        <v>307.9359371913597</v>
+      </c>
+      <c r="G6">
+        <v>103.9487609741763</v>
+      </c>
+      <c r="H6">
+        <v>206.8114168941975</v>
+      </c>
+      <c r="I6">
+        <v>154.8408911711394</v>
+      </c>
+      <c r="J6">
+        <v>44.18220621437285</v>
+      </c>
+      <c r="K6">
+        <v>44.18221393893873</v>
+      </c>
+      <c r="L6">
+        <v>43.97014707808466</v>
+      </c>
+      <c r="M6">
+        <v>43.97014787559783</v>
+      </c>
+      <c r="N6">
+        <v>43.97017793166924</v>
+      </c>
+      <c r="O6">
+        <v>43.97015716062924</v>
+      </c>
+      <c r="P6">
+        <v>43.97016519828867</v>
+      </c>
+      <c r="Q6">
+        <v>44.17954447853845</v>
+      </c>
+      <c r="R6">
+        <v>137.0477370555818</v>
+      </c>
+      <c r="S6">
+        <v>137.0478344692856</v>
+      </c>
+      <c r="T6">
+        <v>137.04777220903</v>
+      </c>
+      <c r="U6">
+        <v>137.047796972638</v>
+      </c>
+      <c r="V6">
+        <v>137.0481367431466</v>
+      </c>
+      <c r="W6">
+        <v>137.0482198876743</v>
+      </c>
+      <c r="X6">
+        <v>137.0477532236691</v>
+      </c>
+      <c r="Y6">
+        <v>137.0478081606734</v>
+      </c>
+      <c r="Z6">
+        <v>150.6415554322302</v>
+      </c>
+      <c r="AA6">
+        <v>212.4701719242531</v>
+      </c>
+      <c r="AB6">
+        <v>145.30819572974</v>
+      </c>
+      <c r="AC6">
+        <v>220.293233730535</v>
+      </c>
+      <c r="AD6">
+        <v>182.9111778642982</v>
+      </c>
+      <c r="AE6">
+        <v>174.9742278232251</v>
+      </c>
+      <c r="AF6">
+        <v>176.3489063596353</v>
+      </c>
+      <c r="AG6">
+        <v>181.544657360339</v>
+      </c>
+      <c r="AH6">
+        <v>9031.23</v>
+      </c>
+      <c r="AI6">
+        <v>9040.85</v>
+      </c>
+      <c r="AJ6">
+        <v>9010.559999999999</v>
+      </c>
+      <c r="AK6">
+        <v>9041.26</v>
+      </c>
+      <c r="AL6">
+        <v>9039.190000000001</v>
+      </c>
+      <c r="AM6">
+        <v>9015.690000000001</v>
+      </c>
+      <c r="AN6">
+        <v>9022.190000000001</v>
+      </c>
+      <c r="AO6">
+        <v>9030.200000000001</v>
+      </c>
+      <c r="AP6">
+        <v>18362.1</v>
+      </c>
+      <c r="AQ6">
+        <v>18375.6</v>
+      </c>
+      <c r="AR6">
+        <v>18314.9</v>
+      </c>
+      <c r="AS6">
+        <v>18375.6</v>
+      </c>
+      <c r="AT6">
+        <v>18368.6</v>
+      </c>
+      <c r="AU6">
+        <v>18347.1</v>
+      </c>
+      <c r="AV6">
+        <v>18247.4</v>
+      </c>
+      <c r="AW6">
+        <v>18318.4</v>
+      </c>
+      <c r="AX6">
+        <v>33878</v>
+      </c>
+      <c r="AY6">
+        <v>33911.1</v>
+      </c>
+      <c r="AZ6">
+        <v>33769.3</v>
+      </c>
+      <c r="BA6">
+        <v>33909.9</v>
+      </c>
+      <c r="BB6">
+        <v>33896.5</v>
+      </c>
+      <c r="BC6">
+        <v>33798.1</v>
+      </c>
+      <c r="BD6">
+        <v>33647.3</v>
+      </c>
+      <c r="BE6">
+        <v>33764.8</v>
+      </c>
+      <c r="BF6">
+        <v>18963.6</v>
+      </c>
+      <c r="BG6">
+        <v>18924.2</v>
+      </c>
+      <c r="BH6">
+        <v>18930.3</v>
+      </c>
+      <c r="BI6">
+        <v>18971.9</v>
+      </c>
+      <c r="BJ6">
+        <v>18946</v>
+      </c>
+      <c r="BK6">
+        <v>18945</v>
+      </c>
+      <c r="BL6">
+        <v>18822.9</v>
+      </c>
+      <c r="BM6">
+        <v>18911.1</v>
+      </c>
+      <c r="BN6">
+        <v>127900</v>
+      </c>
+      <c r="BO6">
+        <v>129094</v>
+      </c>
+      <c r="BP6">
+        <v>127831</v>
+      </c>
+      <c r="BQ6">
+        <v>128709</v>
+      </c>
+      <c r="BR6">
+        <v>127388</v>
+      </c>
+      <c r="BS6">
+        <v>127861</v>
+      </c>
+      <c r="BT6">
+        <v>128492</v>
+      </c>
+      <c r="BU6">
+        <v>127720</v>
+      </c>
+      <c r="BV6">
+        <v>264965</v>
+      </c>
+      <c r="BW6">
+        <v>266638</v>
+      </c>
+      <c r="BX6">
+        <v>263151</v>
+      </c>
+      <c r="BY6">
+        <v>264752</v>
+      </c>
+      <c r="BZ6">
+        <v>263049</v>
+      </c>
+      <c r="CA6">
+        <v>266605</v>
+      </c>
+      <c r="CB6">
+        <v>267501</v>
+      </c>
+      <c r="CC6">
+        <v>263880</v>
+      </c>
+      <c r="CD6">
+        <v>279474</v>
+      </c>
+      <c r="CE6">
+        <v>281256</v>
+      </c>
+      <c r="CF6">
+        <v>277403</v>
+      </c>
+      <c r="CG6">
+        <v>279147</v>
+      </c>
+      <c r="CH6">
+        <v>277587</v>
+      </c>
+      <c r="CI6">
+        <v>281537</v>
+      </c>
+      <c r="CJ6">
+        <v>282132</v>
+      </c>
+      <c r="CK6">
+        <v>277788</v>
+      </c>
+      <c r="CL6">
+        <v>475160</v>
+      </c>
+      <c r="CM6">
+        <v>477725</v>
+      </c>
+      <c r="CN6">
+        <v>471621</v>
+      </c>
+      <c r="CO6">
+        <v>473716</v>
+      </c>
+      <c r="CP6">
+        <v>472124</v>
+      </c>
+      <c r="CQ6">
+        <v>479972</v>
+      </c>
+      <c r="CR6">
+        <v>481327</v>
+      </c>
+      <c r="CS6">
+        <v>474710</v>
+      </c>
+      <c r="CT6">
+        <v>970330</v>
+      </c>
+      <c r="CU6">
+        <v>976837</v>
+      </c>
+      <c r="CV6">
+        <v>966003</v>
+      </c>
+      <c r="CW6">
+        <v>971315</v>
+      </c>
+      <c r="CX6">
+        <v>964441</v>
+      </c>
+      <c r="CY6">
+        <v>982461</v>
+      </c>
+      <c r="CZ6">
+        <v>979610</v>
+      </c>
+      <c r="DA6">
+        <v>968359</v>
+      </c>
+      <c r="DB6">
+        <v>295.0526971835643</v>
+      </c>
+      <c r="DC6">
+        <v>27.11545439686649</v>
+      </c>
+      <c r="DD6">
+        <v>194.4957742234692</v>
+      </c>
+      <c r="DE6">
+        <v>41.13944994106159</v>
+      </c>
+      <c r="DF6">
+        <v>3.91755</v>
+      </c>
+      <c r="DG6">
+        <v>4.45414</v>
+      </c>
+      <c r="DH6">
+        <v>1.26483</v>
+      </c>
+      <c r="DI6">
+        <v>1.30041</v>
+      </c>
+      <c r="DJ6">
+        <v>1.31577</v>
+      </c>
+      <c r="DK6">
+        <v>1.27968</v>
+      </c>
+      <c r="DL6">
+        <v>4.47849</v>
+      </c>
+      <c r="DM6">
+        <v>3.96231</v>
+      </c>
+      <c r="DN6">
+        <v>3.91705</v>
+      </c>
+      <c r="DO6">
+        <v>4.45487</v>
+      </c>
+      <c r="DP6">
+        <v>1.26352</v>
+      </c>
+      <c r="DQ6">
+        <v>1.2999</v>
+      </c>
+      <c r="DR6">
+        <v>1.31677</v>
+      </c>
+      <c r="DS6">
+        <v>1.27885</v>
+      </c>
+      <c r="DT6">
+        <v>4.47913</v>
+      </c>
+      <c r="DU6">
+        <v>3.95893</v>
+      </c>
+      <c r="DV6">
+        <v>3.91729</v>
+      </c>
+      <c r="DW6">
+        <v>4.45627</v>
+      </c>
+      <c r="DX6">
+        <v>1.26437</v>
+      </c>
+      <c r="DY6">
+        <v>1.30144</v>
+      </c>
+      <c r="DZ6">
+        <v>1.31704</v>
+      </c>
+      <c r="EA6">
+        <v>1.27857</v>
+      </c>
+      <c r="EB6">
+        <v>4.47889</v>
+      </c>
+      <c r="EC6">
+        <v>3.95984</v>
+      </c>
+      <c r="ED6">
+        <v>3.92025</v>
+      </c>
+      <c r="EE6">
+        <v>4.45423</v>
+      </c>
+      <c r="EF6">
+        <v>1.26449</v>
+      </c>
+      <c r="EG6">
+        <v>1.29954</v>
+      </c>
+      <c r="EH6">
+        <v>1.31731</v>
+      </c>
+      <c r="EI6">
+        <v>1.27916</v>
+      </c>
+      <c r="EJ6">
+        <v>4.4797</v>
+      </c>
+      <c r="EK6">
+        <v>3.96124</v>
+      </c>
+      <c r="EL6">
+        <v>23.9685</v>
+      </c>
+      <c r="EM6">
+        <v>23.967</v>
+      </c>
+      <c r="EN6">
+        <v>19.9898</v>
+      </c>
+      <c r="EO6">
+        <v>20.2848</v>
+      </c>
+      <c r="EP6">
+        <v>20.3931</v>
+      </c>
+      <c r="EQ6">
+        <v>20.0888</v>
+      </c>
+      <c r="ER6">
+        <v>23.9766</v>
+      </c>
+      <c r="ES6">
+        <v>23.9792</v>
+      </c>
+      <c r="ET6">
+        <v>23.9497</v>
+      </c>
+      <c r="EU6">
+        <v>23.9438</v>
+      </c>
+      <c r="EV6">
+        <v>20.0039</v>
+      </c>
+      <c r="EW6">
+        <v>20.2469</v>
+      </c>
+      <c r="EX6">
+        <v>20.4344</v>
+      </c>
+      <c r="EY6">
+        <v>20.1005</v>
+      </c>
+      <c r="EZ6">
+        <v>23.9491</v>
+      </c>
+      <c r="FA6">
+        <v>23.9898</v>
+      </c>
+      <c r="FB6">
+        <v>23.962</v>
+      </c>
+      <c r="FC6">
+        <v>23.97</v>
+      </c>
+      <c r="FD6">
+        <v>19.987</v>
+      </c>
+      <c r="FE6">
+        <v>20.1549</v>
+      </c>
+      <c r="FF6">
+        <v>20.3931</v>
+      </c>
+      <c r="FG6">
+        <v>20.1013</v>
+      </c>
+      <c r="FH6">
+        <v>23.9865</v>
+      </c>
+      <c r="FI6">
+        <v>23.972</v>
+      </c>
+      <c r="FJ6">
+        <v>23.9569</v>
+      </c>
+      <c r="FK6">
+        <v>23.9762</v>
+      </c>
+      <c r="FL6">
+        <v>19.92</v>
+      </c>
+      <c r="FM6">
+        <v>20.2638</v>
+      </c>
+      <c r="FN6">
+        <v>20.4419</v>
+      </c>
+      <c r="FO6">
+        <v>20.1054</v>
+      </c>
+      <c r="FP6">
+        <v>23.9752</v>
+      </c>
+      <c r="FQ6">
+        <v>23.9631</v>
+      </c>
+      <c r="FR6">
+        <v>1492.89</v>
+      </c>
+      <c r="FS6">
+        <v>3224.92</v>
+      </c>
+      <c r="FT6">
+        <v>6714.5</v>
+      </c>
+      <c r="FU6">
+        <v>12871.93</v>
+      </c>
+      <c r="FV6">
+        <v>19990.78</v>
+      </c>
+      <c r="FW6">
+        <v>22172.25</v>
+      </c>
+      <c r="FX6">
+        <v>23073.19</v>
+      </c>
+      <c r="FY6">
+        <v>23527.09</v>
+      </c>
+      <c r="FZ6">
+        <v>23805.92</v>
+      </c>
+      <c r="GA6">
+        <v>23380.51</v>
+      </c>
+      <c r="GB6">
+        <v>23856.63</v>
+      </c>
+      <c r="GC6">
+        <v>23869.58</v>
+      </c>
+      <c r="GD6">
+        <v>23885.7</v>
+      </c>
+      <c r="GE6">
+        <v>23914.56</v>
+      </c>
+      <c r="GF6">
+        <v>23935.21</v>
+      </c>
+      <c r="GG6">
+        <v>1479.1</v>
+      </c>
+      <c r="GH6">
+        <v>3246.48</v>
+      </c>
+      <c r="GI6">
+        <v>6754.94</v>
+      </c>
+      <c r="GJ6">
+        <v>13101.09</v>
+      </c>
+      <c r="GK6">
+        <v>19945.81</v>
+      </c>
+      <c r="GL6">
+        <v>22631.62</v>
+      </c>
+      <c r="GM6">
+        <v>23381.58</v>
+      </c>
+      <c r="GN6">
+        <v>23515.29</v>
+      </c>
+      <c r="GO6">
+        <v>23756.01</v>
+      </c>
+      <c r="GP6">
+        <v>23875.91</v>
+      </c>
+      <c r="GQ6">
+        <v>23911.13</v>
+      </c>
+      <c r="GR6">
+        <v>23935.42</v>
+      </c>
+      <c r="GS6">
+        <v>23941.25</v>
+      </c>
+      <c r="GT6">
+        <v>23922.06</v>
+      </c>
+      <c r="GU6">
+        <v>23928.59</v>
+      </c>
+      <c r="GV6">
+        <v>1505.29</v>
+      </c>
+      <c r="GW6">
+        <v>3215.97</v>
+      </c>
+      <c r="GX6">
+        <v>6745.49</v>
+      </c>
+      <c r="GY6">
+        <v>11548.88</v>
+      </c>
+      <c r="GZ6">
+        <v>19432.15</v>
+      </c>
+      <c r="HA6">
+        <v>22765.51</v>
+      </c>
+      <c r="HB6">
+        <v>23235.07</v>
+      </c>
+      <c r="HC6">
+        <v>23620.08</v>
+      </c>
+      <c r="HD6">
+        <v>23759.08</v>
+      </c>
+      <c r="HE6">
+        <v>23859.82</v>
+      </c>
+      <c r="HF6">
+        <v>23775.01</v>
+      </c>
+      <c r="HG6">
+        <v>23885.96</v>
+      </c>
+      <c r="HH6">
+        <v>23894.73</v>
+      </c>
+      <c r="HI6">
+        <v>23909.98</v>
+      </c>
+      <c r="HJ6">
+        <v>23927.21</v>
+      </c>
+      <c r="HK6">
+        <v>1474.47</v>
+      </c>
+      <c r="HL6">
+        <v>3344.68</v>
+      </c>
+      <c r="HM6">
+        <v>6606.35</v>
+      </c>
+      <c r="HN6">
+        <v>12071.4</v>
+      </c>
+      <c r="HO6">
+        <v>18408.33</v>
+      </c>
+      <c r="HP6">
+        <v>20789.27</v>
+      </c>
+      <c r="HQ6">
+        <v>22469.43</v>
+      </c>
+      <c r="HR6">
+        <v>22777.1</v>
+      </c>
+      <c r="HS6">
+        <v>23461.03</v>
+      </c>
+      <c r="HT6">
+        <v>23397.19</v>
+      </c>
+      <c r="HU6">
+        <v>23526.55</v>
+      </c>
+      <c r="HV6">
+        <v>23854.76</v>
+      </c>
+      <c r="HW6">
+        <v>23862.23</v>
+      </c>
+      <c r="HX6">
+        <v>23931.15</v>
+      </c>
+      <c r="HY6">
+        <v>23924.44</v>
+      </c>
+      <c r="HZ6">
+        <v>1523.33</v>
+      </c>
+      <c r="IA6">
+        <v>3233.23</v>
+      </c>
+      <c r="IB6">
+        <v>6792.88</v>
+      </c>
+      <c r="IC6">
+        <v>12616.05</v>
+      </c>
+      <c r="ID6">
+        <v>19324.05</v>
+      </c>
+      <c r="IE6">
+        <v>22082.51</v>
+      </c>
+      <c r="IF6">
+        <v>23294.23</v>
+      </c>
+      <c r="IG6">
+        <v>23546.22</v>
+      </c>
+      <c r="IH6">
+        <v>23727.91</v>
+      </c>
+      <c r="II6">
+        <v>23843.93</v>
+      </c>
+      <c r="IJ6">
+        <v>23905.96</v>
+      </c>
+      <c r="IK6">
+        <v>23902.37</v>
+      </c>
+      <c r="IL6">
+        <v>23921.03</v>
+      </c>
+      <c r="IM6">
+        <v>23921.06</v>
+      </c>
+      <c r="IN6">
+        <v>23922.4</v>
+      </c>
+      <c r="IO6">
+        <v>1506.63</v>
+      </c>
+      <c r="IP6">
+        <v>3261.71</v>
+      </c>
+      <c r="IQ6">
+        <v>6752.38</v>
+      </c>
+      <c r="IR6">
+        <v>13592.41</v>
+      </c>
+      <c r="IS6">
+        <v>19989.31</v>
+      </c>
+      <c r="IT6">
+        <v>22560.57</v>
+      </c>
+      <c r="IU6">
+        <v>23389.29</v>
+      </c>
+      <c r="IV6">
+        <v>23503.32</v>
+      </c>
+      <c r="IW6">
+        <v>23741.51</v>
+      </c>
+      <c r="IX6">
+        <v>23866.43</v>
+      </c>
+      <c r="IY6">
+        <v>23898.95</v>
+      </c>
+      <c r="IZ6">
+        <v>23876.36</v>
+      </c>
+      <c r="JA6">
+        <v>23919.63</v>
+      </c>
+      <c r="JB6">
+        <v>23924.68</v>
+      </c>
+      <c r="JC6">
+        <v>23930.37</v>
+      </c>
+      <c r="JD6">
+        <v>1467.69</v>
+      </c>
+      <c r="JE6">
+        <v>3157.04</v>
+      </c>
+      <c r="JF6">
+        <v>6494.61</v>
+      </c>
+      <c r="JG6">
+        <v>12883.51</v>
+      </c>
+      <c r="JH6">
+        <v>19207.67</v>
+      </c>
+      <c r="JI6">
+        <v>22519.39</v>
+      </c>
+      <c r="JJ6">
+        <v>23323.46</v>
+      </c>
+      <c r="JK6">
+        <v>23523.6</v>
+      </c>
+      <c r="JL6">
+        <v>23626.67</v>
+      </c>
+      <c r="JM6">
+        <v>23836.99</v>
+      </c>
+      <c r="JN6">
+        <v>23904.51</v>
+      </c>
+      <c r="JO6">
+        <v>23919.07</v>
+      </c>
+      <c r="JP6">
+        <v>23943.82</v>
+      </c>
+      <c r="JQ6">
+        <v>23936.77</v>
+      </c>
+      <c r="JR6">
+        <v>23941.57</v>
+      </c>
+      <c r="JS6">
+        <v>1505.63</v>
+      </c>
+      <c r="JT6">
+        <v>3259.93</v>
+      </c>
+      <c r="JU6">
+        <v>6738.6</v>
+      </c>
+      <c r="JV6">
+        <v>13352.06</v>
+      </c>
+      <c r="JW6">
+        <v>19941.35</v>
+      </c>
+      <c r="JX6">
+        <v>22566.09</v>
+      </c>
+      <c r="JY6">
+        <v>23244.77</v>
+      </c>
+      <c r="JZ6">
+        <v>23377.67</v>
+      </c>
+      <c r="KA6">
+        <v>23736.17</v>
+      </c>
+      <c r="KB6">
+        <v>23829.25</v>
+      </c>
+      <c r="KC6">
+        <v>23879.6</v>
+      </c>
+      <c r="KD6">
+        <v>23895.1</v>
+      </c>
+      <c r="KE6">
+        <v>23930.64</v>
+      </c>
+      <c r="KF6">
+        <v>23845.63</v>
+      </c>
+      <c r="KG6">
+        <v>23896.94</v>
+      </c>
+      <c r="KH6">
+        <v>0</v>
+      </c>
+      <c r="KI6">
+        <v>0.00595</v>
+      </c>
+      <c r="KJ6">
+        <v>0.00595</v>
+      </c>
+      <c r="KK6">
+        <v>0.00557</v>
+      </c>
+      <c r="KL6">
+        <v>0.0055</v>
+      </c>
+      <c r="KM6">
+        <v>0.00592</v>
+      </c>
+      <c r="KN6">
+        <v>0.00589</v>
+      </c>
+      <c r="KO6">
+        <v>0.00572</v>
+      </c>
+      <c r="KP6">
+        <v>0.0059</v>
+      </c>
+      <c r="KQ6">
+        <v>0.01026</v>
+      </c>
+      <c r="KR6">
+        <v>0.01026</v>
+      </c>
+      <c r="KS6">
+        <v>0.01046</v>
+      </c>
+      <c r="KT6">
+        <v>0.01049</v>
+      </c>
+      <c r="KU6">
+        <v>0.01063</v>
+      </c>
+      <c r="KV6">
+        <v>0.01006</v>
+      </c>
+      <c r="KW6">
+        <v>0.01045</v>
+      </c>
+      <c r="KX6">
+        <v>0.01071</v>
+      </c>
+      <c r="KY6">
+        <v>48.07024518959224</v>
+      </c>
+      <c r="KZ6">
+        <v>4806.472441132788</v>
+      </c>
+      <c r="LA6">
+        <v>25.95312986522913</v>
+      </c>
+      <c r="LB6">
+        <v>9069.90809255883</v>
+      </c>
+      <c r="LC6">
+        <v>34.64499759674072</v>
+      </c>
+      <c r="LD6">
+        <v>0</v>
+      </c>
+      <c r="LE6">
+        <v>25.6</v>
+      </c>
+      <c r="LF6">
+        <v>25.8</v>
+      </c>
+      <c r="LG6">
+        <v>26</v>
+      </c>
+      <c r="LH6">
+        <v>26.1</v>
+      </c>
+      <c r="LI6">
+        <v>26.2</v>
+      </c>
+      <c r="LJ6">
+        <v>25.8</v>
+      </c>
+      <c r="LK6">
+        <v>25.3</v>
+      </c>
+      <c r="LL6">
+        <v>26.1</v>
+      </c>
+      <c r="LM6">
+        <v>24.3</v>
+      </c>
+      <c r="LN6">
+        <v>24.6</v>
+      </c>
+      <c r="LO6">
+        <v>24.5</v>
+      </c>
+      <c r="LP6">
+        <v>24.6</v>
+      </c>
+      <c r="LQ6">
+        <v>24.3</v>
+      </c>
+      <c r="LR6">
+        <v>24.3</v>
+      </c>
+      <c r="LS6">
+        <v>23.9</v>
+      </c>
+      <c r="LT6">
+        <v>24.6</v>
+      </c>
+      <c r="LU6">
+        <v>1118</v>
+      </c>
+      <c r="LV6">
+        <v>1114.6</v>
+      </c>
+      <c r="LW6">
+        <v>1119.7</v>
+      </c>
+      <c r="LX6">
+        <v>1121.9</v>
+      </c>
+      <c r="LY6">
+        <v>1109.7</v>
+      </c>
+      <c r="LZ6">
+        <v>1110.1</v>
+      </c>
+      <c r="MA6">
+        <v>1123.3</v>
+      </c>
+      <c r="MB6">
+        <v>1117.6</v>
+      </c>
+      <c r="MC6">
+        <v>0</v>
+      </c>
+      <c r="MD6">
+        <v>0</v>
+      </c>
+      <c r="ME6">
+        <v>37.84</v>
+      </c>
+      <c r="MF6">
+        <v>0</v>
+      </c>
+      <c r="MG6">
+        <v>0</v>
+      </c>
+      <c r="MH6">
+        <v>36.42</v>
+      </c>
+      <c r="MI6">
+        <v>0</v>
+      </c>
+      <c r="MJ6">
+        <v>0</v>
+      </c>
+      <c r="MK6">
+        <v>36.87</v>
+      </c>
+      <c r="ML6">
+        <v>0</v>
+      </c>
+      <c r="MM6">
+        <v>0</v>
+      </c>
+      <c r="MN6">
+        <v>35.83</v>
+      </c>
+      <c r="MO6">
+        <v>0.01</v>
+      </c>
+      <c r="MP6">
+        <v>0</v>
+      </c>
+      <c r="MQ6">
+        <v>36.91</v>
+      </c>
+      <c r="MR6">
+        <v>0.01</v>
+      </c>
+      <c r="MS6">
+        <v>0.01</v>
+      </c>
+      <c r="MT6">
+        <v>37.58</v>
+      </c>
+      <c r="MU6">
+        <v>0.02</v>
+      </c>
+      <c r="MV6">
+        <v>0.01</v>
+      </c>
+      <c r="MW6">
+        <v>36.98</v>
+      </c>
+      <c r="MX6">
+        <v>0.05</v>
+      </c>
+      <c r="MY6">
+        <v>0.03</v>
+      </c>
+      <c r="MZ6">
+        <v>36.93</v>
+      </c>
+      <c r="NA6">
+        <v>0.1</v>
+      </c>
+      <c r="NB6">
+        <v>0.06</v>
+      </c>
+      <c r="NC6">
+        <v>36.06</v>
+      </c>
+      <c r="ND6">
+        <v>0.19</v>
+      </c>
+      <c r="NE6">
+        <v>0.11</v>
+      </c>
+      <c r="NF6">
+        <v>37.2</v>
+      </c>
+      <c r="NG6">
+        <v>0.39</v>
+      </c>
+      <c r="NH6">
+        <v>0.22</v>
+      </c>
+      <c r="NI6">
+        <v>37.04</v>
+      </c>
+      <c r="NJ6">
+        <v>0.77</v>
+      </c>
+      <c r="NK6">
+        <v>0.44</v>
+      </c>
+      <c r="NL6">
+        <v>37.46</v>
+      </c>
+      <c r="NM6">
+        <v>1.52</v>
+      </c>
+      <c r="NN6">
+        <v>0.87</v>
+      </c>
+      <c r="NO6">
+        <v>37.64</v>
+      </c>
+      <c r="NP6">
+        <v>3</v>
+      </c>
+      <c r="NQ6">
+        <v>1.71</v>
+      </c>
+      <c r="NR6">
+        <v>38.22</v>
+      </c>
+      <c r="NS6">
+        <v>5.31</v>
+      </c>
+      <c r="NT6">
+        <v>3.04</v>
+      </c>
+      <c r="NU6">
+        <v>43.17</v>
+      </c>
+      <c r="NV6">
+        <v>9.5</v>
+      </c>
+      <c r="NW6">
+        <v>5.43</v>
+      </c>
+      <c r="NX6">
+        <v>48.29</v>
+      </c>
+      <c r="NY6">
+        <v>15.11</v>
+      </c>
+      <c r="NZ6">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="OA6">
+        <v>60.71</v>
+      </c>
+      <c r="OB6">
+        <v>24.1</v>
+      </c>
+      <c r="OC6">
+        <v>13.77</v>
+      </c>
+      <c r="OD6">
+        <v>76.13</v>
+      </c>
+      <c r="OE6">
+        <v>38.12</v>
+      </c>
+      <c r="OF6">
+        <v>21.78</v>
+      </c>
+      <c r="OG6">
+        <v>96.28</v>
+      </c>
+      <c r="OH6">
+        <v>65.75</v>
+      </c>
+      <c r="OI6">
+        <v>37.57</v>
+      </c>
+      <c r="OJ6">
+        <v>111.6</v>
+      </c>
+      <c r="OK6">
+        <v>89.51000000000001</v>
+      </c>
+      <c r="OL6">
+        <v>51.15</v>
+      </c>
+      <c r="OM6">
+        <v>164</v>
+      </c>
+      <c r="ON6">
+        <v>114.38</v>
+      </c>
+      <c r="OO6">
+        <v>65.36</v>
+      </c>
+      <c r="OP6">
+        <v>256.7</v>
+      </c>
+      <c r="OQ6">
+        <v>154.89</v>
+      </c>
+      <c r="OR6">
+        <v>88.51000000000001</v>
+      </c>
+      <c r="OS6">
+        <v>379.1</v>
+      </c>
+      <c r="OT6">
+        <v>200.01</v>
+      </c>
+      <c r="OU6">
+        <v>114.29</v>
+      </c>
+      <c r="OV6">
+        <v>587.2</v>
+      </c>
+      <c r="OW6">
+        <v>202.97</v>
+      </c>
+      <c r="OX6">
+        <v>115.98</v>
+      </c>
+      <c r="OY6">
+        <v>1157.2</v>
+      </c>
+      <c r="OZ6">
+        <v>221.82</v>
+      </c>
+      <c r="PA6">
+        <v>126.75</v>
+      </c>
+      <c r="PB6">
+        <v>2117.8</v>
+      </c>
+      <c r="PC6">
+        <v>224.54</v>
+      </c>
+      <c r="PD6">
+        <v>128.31</v>
+      </c>
+      <c r="PE6">
+        <v>4184.2</v>
+      </c>
+      <c r="PF6">
+        <v>230.15</v>
+      </c>
+      <c r="PG6">
+        <v>131.51</v>
+      </c>
+      <c r="PH6">
+        <v>8164.5</v>
+      </c>
+      <c r="PI6">
+        <v>231.89</v>
+      </c>
+      <c r="PJ6">
+        <v>132.51</v>
+      </c>
+      <c r="PK6">
+        <v>16207</v>
+      </c>
+      <c r="PL6">
+        <v>234.45</v>
+      </c>
+      <c r="PM6">
+        <v>133.97</v>
+      </c>
+      <c r="PN6">
+        <v>32059</v>
+      </c>
+      <c r="PO6">
+        <v>235.36</v>
+      </c>
+      <c r="PP6">
+        <v>134.49</v>
+      </c>
+      <c r="PQ6">
+        <v>63870</v>
+      </c>
+      <c r="PR6">
+        <v>253.9552273228765</v>
+      </c>
+      <c r="PS6">
+        <v>760.3348099129964</v>
+      </c>
+      <c r="PT6">
+        <v>200.0860618427396</v>
+      </c>
+      <c r="PU6">
+        <v>971.0651430922575</v>
+      </c>
+      <c r="PV6">
+        <v>389.0860509127378</v>
+      </c>
+      <c r="PW6">
+        <v>496.1174740929897</v>
+      </c>
+      <c r="PX6">
+        <v>308.6274107918143</v>
+      </c>
+      <c r="PY6">
+        <v>627.2056272195069</v>
+      </c>
+      <c r="PZ6">
+        <v>100</v>
+      </c>
+      <c r="QA6">
+        <v>352.0709954334822</v>
+      </c>
+      <c r="QB6">
+        <v>424.5809856802225</v>
+      </c>
+      <c r="QC6">
+        <v>100</v>
+      </c>
+      <c r="QD6">
+        <v>10.57441186904907</v>
+      </c>
+      <c r="QE6">
+        <v>10.08469676971436</v>
+      </c>
+      <c r="QF6">
+        <v>40.35283671692014</v>
+      </c>
+      <c r="QG6">
+        <v>796.3615936949874</v>
+      </c>
+      <c r="QH6">
+        <v>24.13351484574378</v>
+      </c>
+      <c r="QI6">
+        <v>1330.411361458461</v>
+      </c>
+      <c r="QJ6">
+        <v>55.46631093602628</v>
+      </c>
+      <c r="QK6">
+        <v>580.234107444399</v>
+      </c>
+      <c r="QL6">
+        <v>33.35228993091732</v>
+      </c>
+      <c r="QM6">
+        <v>962.5332023901524</v>
+      </c>
+      <c r="QN6">
+        <v>65.22519944701344</v>
+      </c>
+      <c r="QO6">
+        <v>493.4268638875934</v>
+      </c>
+      <c r="QP6">
+        <v>39.25287735182792</v>
+      </c>
+      <c r="QQ6">
+        <v>817.2008546147621</v>
+      </c>
+      <c r="QR6">
+        <v>74.93487105239183</v>
+      </c>
+      <c r="QS6">
+        <v>100</v>
+      </c>
+      <c r="QT6">
+        <v>45.20330624654889</v>
+      </c>
+      <c r="QU6">
         <v>709.1127328377091</v>
       </c>
     </row>
@@ -7301,544 +10095,977 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:BA4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:53">
       <c r="B1" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>314</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>459</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:53">
       <c r="A2" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>15.77852348993289</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>-0.00167785234899322</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-0.0654362416107382</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-0.07718120805369133</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-0.006711409395973172</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>-0.01174496644295298</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-0.04026845637583889</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-0.01006711409395976</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>0.01949317738791428</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.0224171539961013</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.03606237816764138</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>-0.01949317738791428</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.01851851851851844</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.04385964912280709</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.01234567901234571</v>
-      </c>
       <c r="W2">
-        <v>0.008230452674897091</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0.01234567901234571</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.008230452674897091</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.01234567901234571</v>
       </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>-0.01646090534979433</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>0.01234567901234571</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>0.007812499999999972</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>0.01562499999999994</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>0.01953125</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>0.02343749999999992</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>0.007812499999999972</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>-0.01171875000000003</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>0.01953125</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:53">
       <c r="A3" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>-0.00167785234899322</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-0.0654362416107382</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>-0.07718120805369133</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-0.006711409395973172</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>-0.01174496644295298</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>-0.04026845637583889</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>-0.01006711409395976</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>0.01949317738791428</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.0224171539961013</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.03606237816764138</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>-0.01949317738791428</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.01851851851851844</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.04385964912280709</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53">
+      <c r="A4" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-0.00167785234899322</v>
+      </c>
+      <c r="G4">
+        <v>-0.00167785234899322</v>
+      </c>
+      <c r="H4">
+        <v>-0.0654362416107382</v>
+      </c>
+      <c r="I4">
+        <v>-0.07718120805369133</v>
+      </c>
+      <c r="J4">
+        <v>-0.006711409395973172</v>
+      </c>
+      <c r="K4">
+        <v>-0.01174496644295298</v>
+      </c>
+      <c r="L4">
+        <v>-0.04026845637583889</v>
+      </c>
+      <c r="M4">
+        <v>-0.01006711409395976</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.01949317738791428</v>
+      </c>
+      <c r="R4">
+        <v>0.0224171539961013</v>
+      </c>
+      <c r="S4">
+        <v>0.03606237816764138</v>
+      </c>
+      <c r="T4">
+        <v>-0.01949317738791428</v>
+      </c>
+      <c r="U4">
+        <v>0.01851851851851844</v>
+      </c>
+      <c r="V4">
+        <v>0.04385964912280709</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0.01234567901234571</v>
+      </c>
+      <c r="Y4">
+        <v>0.008230452674897091</v>
+      </c>
+      <c r="Z4">
+        <v>0.01234567901234571</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>-0.01646090534979433</v>
+      </c>
+      <c r="AD4">
+        <v>0.01234567901234571</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.007812499999999972</v>
+      </c>
+      <c r="AG4">
+        <v>0.01562499999999994</v>
+      </c>
+      <c r="AH4">
+        <v>0.01953125</v>
+      </c>
+      <c r="AI4">
+        <v>0.02343749999999992</v>
+      </c>
+      <c r="AJ4">
+        <v>0.007812499999999972</v>
+      </c>
+      <c r="AK4">
+        <v>-0.01171875000000003</v>
+      </c>
+      <c r="AL4">
+        <v>0.01953125</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>-0.7801393739587533</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>-0.767338632312376</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA2:AA3">
+  <conditionalFormatting sqref="AA2:AA4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
+      <formula>LEN(TRIM(AA2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
+      <formula>LEN(TRIM(AB2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="61">
+      <formula>LEN(TRIM(AC2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="59">
+      <formula>LEN(TRIM(AD2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="37">
+      <formula>LEN(TRIM(AE2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
+      <formula>LEN(TRIM(AF2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="35">
+      <formula>LEN(TRIM(AG2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
+      <formula>LEN(TRIM(AH2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:AI4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
+      <formula>LEN(TRIM(AI2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ2:AJ4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="57">
+      <formula>LEN(TRIM(AJ2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="55">
+      <formula>LEN(TRIM(AK2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2:AL4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="45">
+      <formula>LEN(TRIM(AL2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2:AM4">
+    <cfRule type="cellIs" dxfId="1" priority="98" operator="greaterThan">
+      <formula>0.0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2:AN4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="71">
+      <formula>LEN(TRIM(AN2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="72" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AO4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="75">
+      <formula>LEN(TRIM(AO2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="76" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP2:AP4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="77">
+      <formula>LEN(TRIM(AP2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="78" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2:AQ4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="79">
+      <formula>LEN(TRIM(AQ2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AR4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="69">
+      <formula>LEN(TRIM(AR2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="70" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS2:AS4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="73">
+      <formula>LEN(TRIM(AS2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT2:AT4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="91">
+      <formula>LEN(TRIM(AT2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU2:AU4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="85">
+      <formula>LEN(TRIM(AU2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="86" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV2:AV4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="81">
+      <formula>LEN(TRIM(AV2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW2:AW4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="87">
+      <formula>LEN(TRIM(AW2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="88" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX2:AX4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="93">
+      <formula>LEN(TRIM(AX2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="94" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY2:AY4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="89">
+      <formula>LEN(TRIM(AY2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="90" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ2:AZ4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="95">
+      <formula>LEN(TRIM(AZ2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="96" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA2:BA4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="83">
+      <formula>LEN(TRIM(BA2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="84" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="65">
+      <formula>LEN(TRIM(D2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="67">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+      <formula>LEN(TRIM(F2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
+      <formula>LEN(TRIM(G2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="13">
+      <formula>LEN(TRIM(H2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(J2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(K2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+      <formula>LEN(TRIM(L2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
+      <formula>LEN(TRIM(M2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N4">
+    <cfRule type="cellIs" dxfId="1" priority="97" operator="greaterThan">
+      <formula>0.0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
+      <formula>LEN(TRIM(O2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(P2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
+      <formula>LEN(TRIM(Q2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
+      <formula>LEN(TRIM(R2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
+      <formula>LEN(TRIM(S2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
+      <formula>LEN(TRIM(T2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
+      <formula>LEN(TRIM(U2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
+      <formula>LEN(TRIM(V2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="39">
-      <formula>LEN(TRIM(AA2))&gt;0</formula>
+      <formula>LEN(TRIM(W2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="55">
-      <formula>LEN(TRIM(AB2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
-      <formula>LEN(TRIM(AC2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="61">
-      <formula>LEN(TRIM(AD2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="35">
-      <formula>LEN(TRIM(AE2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="45">
-      <formula>LEN(TRIM(AF2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="57">
-      <formula>LEN(TRIM(AG2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
-      <formula>LEN(TRIM(AH2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="37">
-      <formula>LEN(TRIM(AI2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ3">
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="greaterThan">
-      <formula>0.0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
-      <formula>LEN(TRIM(C2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
-      <formula>LEN(TRIM(D2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
-      <formula>LEN(TRIM(E2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
-      <formula>LEN(TRIM(F2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="13">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
-      <formula>LEN(TRIM(I2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
-      <formula>LEN(TRIM(J2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="greaterThan">
-      <formula>0.0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
-      <formula>LEN(TRIM(L2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
-      <formula>LEN(TRIM(M2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(N2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
-      <formula>LEN(TRIM(O2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
-      <formula>LEN(TRIM(P2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
-      <formula>LEN(TRIM(Q2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
-      <formula>LEN(TRIM(R2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
-      <formula>LEN(TRIM(S2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
-      <formula>LEN(TRIM(T2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
-      <formula>LEN(TRIM(U2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
-      <formula>LEN(TRIM(V2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="53">
-      <formula>LEN(TRIM(W2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X3">
+  <conditionalFormatting sqref="X2:X4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="49">
       <formula>LEN(TRIM(X2))&gt;0</formula>
     </cfRule>
@@ -7846,19 +11073,19 @@
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="59">
+  <conditionalFormatting sqref="Y2:Y4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
       <formula>LEN(TRIM(Y2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
+  <conditionalFormatting sqref="Z2:Z4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="53">
       <formula>LEN(TRIM(Z2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="54" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/data/diagnosis_summary.xlsx
+++ b/tests/data/diagnosis_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="471">
   <si>
     <t>bert_models/pytorch-bert-base/steptime_train_float32</t>
   </si>
@@ -1412,12 +1412,6 @@
     <t>sb-validation-03</t>
   </si>
   <si>
-    <t>sb-validation-04</t>
-  </si>
-  <si>
-    <t>sb-validation-05</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -1430,16 +1424,10 @@
     <t>FailedTest,Mem</t>
   </si>
   <si>
-    <t>CNN</t>
-  </si>
-  <si>
     <t>kernel-launch/event_overhead:0(B/L: 0.0060 VAL: 0.1000 VAR: 1577.85% Rule:lambda x:x&gt;0.05)</t>
   </si>
   <si>
     <t>mem-bw/D2H_Mem_BW:0_miss,mem-bw/D2H_Mem_BW:1_miss,mem-bw/D2H_Mem_BW:2_miss,mem-bw/D2H_Mem_BW:3_miss,mem-bw/D2H_Mem_BW:4_miss,mem-bw/D2H_Mem_BW:5_miss,mem-bw/D2H_Mem_BW:6_miss,mem-bw/D2H_Mem_BW:7_miss,mem-bw/H2D_Mem_BW:0_miss,mem-bw/H2D_Mem_BW:1_miss,mem-bw/H2D_Mem_BW:2_miss,mem-bw/H2D_Mem_BW:3_miss,mem-bw/H2D_Mem_BW:4_miss,mem-bw/H2D_Mem_BW:5_miss,mem-bw/H2D_Mem_BW:6_miss,mem-bw/H2D_Mem_BW:7_miss,mem-bw/return_code(VAL: 1.0000 Rule:lambda x:x&gt;0)</t>
-  </si>
-  <si>
-    <t>resnet_models/pytorch-resnet152/throughput_train_float16(B/L: 454.8336 VAL: 100.0000 VAR: -78.01% Rule:lambda x:x&lt;-0.05),vgg_models/pytorch-vgg19/throughput_train_float32(B/L: 429.8092 VAL: 100.0000 VAR: -76.73% Rule:lambda x:x&lt;-0.05)</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:QU6"/>
+  <dimension ref="A1:QU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7306,2788 +7294,6 @@
         <v>709.1127328377091</v>
       </c>
     </row>
-    <row r="5" spans="1:463">
-      <c r="A5" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B5">
-        <v>114.5916701061651</v>
-      </c>
-      <c r="C5">
-        <v>279.8794623591105</v>
-      </c>
-      <c r="D5">
-        <v>83.88951083179563</v>
-      </c>
-      <c r="E5">
-        <v>382.0672582741963</v>
-      </c>
-      <c r="F5">
-        <v>307.9359371913597</v>
-      </c>
-      <c r="G5">
-        <v>103.9487609741763</v>
-      </c>
-      <c r="H5">
-        <v>206.8114168941975</v>
-      </c>
-      <c r="I5">
-        <v>154.8408911711394</v>
-      </c>
-      <c r="J5">
-        <v>44.18220621437285</v>
-      </c>
-      <c r="K5">
-        <v>44.18221393893873</v>
-      </c>
-      <c r="L5">
-        <v>43.97014707808466</v>
-      </c>
-      <c r="M5">
-        <v>43.97014787559783</v>
-      </c>
-      <c r="N5">
-        <v>43.97017793166924</v>
-      </c>
-      <c r="O5">
-        <v>43.97015716062924</v>
-      </c>
-      <c r="P5">
-        <v>43.97016519828867</v>
-      </c>
-      <c r="Q5">
-        <v>44.17954447853845</v>
-      </c>
-      <c r="R5">
-        <v>137.0477370555818</v>
-      </c>
-      <c r="S5">
-        <v>137.0478344692856</v>
-      </c>
-      <c r="T5">
-        <v>137.04777220903</v>
-      </c>
-      <c r="U5">
-        <v>137.047796972638</v>
-      </c>
-      <c r="V5">
-        <v>137.0481367431466</v>
-      </c>
-      <c r="W5">
-        <v>137.0482198876743</v>
-      </c>
-      <c r="X5">
-        <v>137.0477532236691</v>
-      </c>
-      <c r="Y5">
-        <v>137.0478081606734</v>
-      </c>
-      <c r="Z5">
-        <v>150.6415554322302</v>
-      </c>
-      <c r="AA5">
-        <v>212.4701719242531</v>
-      </c>
-      <c r="AB5">
-        <v>145.30819572974</v>
-      </c>
-      <c r="AC5">
-        <v>220.293233730535</v>
-      </c>
-      <c r="AD5">
-        <v>182.9111778642982</v>
-      </c>
-      <c r="AE5">
-        <v>174.9742278232251</v>
-      </c>
-      <c r="AF5">
-        <v>176.3489063596353</v>
-      </c>
-      <c r="AG5">
-        <v>181.544657360339</v>
-      </c>
-      <c r="AH5">
-        <v>9031.23</v>
-      </c>
-      <c r="AI5">
-        <v>9040.85</v>
-      </c>
-      <c r="AJ5">
-        <v>9010.559999999999</v>
-      </c>
-      <c r="AK5">
-        <v>9041.26</v>
-      </c>
-      <c r="AL5">
-        <v>9039.190000000001</v>
-      </c>
-      <c r="AM5">
-        <v>9015.690000000001</v>
-      </c>
-      <c r="AN5">
-        <v>9022.190000000001</v>
-      </c>
-      <c r="AO5">
-        <v>9030.200000000001</v>
-      </c>
-      <c r="AP5">
-        <v>18362.1</v>
-      </c>
-      <c r="AQ5">
-        <v>18375.6</v>
-      </c>
-      <c r="AR5">
-        <v>18314.9</v>
-      </c>
-      <c r="AS5">
-        <v>18375.6</v>
-      </c>
-      <c r="AT5">
-        <v>18368.6</v>
-      </c>
-      <c r="AU5">
-        <v>18347.1</v>
-      </c>
-      <c r="AV5">
-        <v>18247.4</v>
-      </c>
-      <c r="AW5">
-        <v>18318.4</v>
-      </c>
-      <c r="AX5">
-        <v>33878</v>
-      </c>
-      <c r="AY5">
-        <v>33911.1</v>
-      </c>
-      <c r="AZ5">
-        <v>33769.3</v>
-      </c>
-      <c r="BA5">
-        <v>33909.9</v>
-      </c>
-      <c r="BB5">
-        <v>33896.5</v>
-      </c>
-      <c r="BC5">
-        <v>33798.1</v>
-      </c>
-      <c r="BD5">
-        <v>33647.3</v>
-      </c>
-      <c r="BE5">
-        <v>33764.8</v>
-      </c>
-      <c r="BF5">
-        <v>18963.6</v>
-      </c>
-      <c r="BG5">
-        <v>18924.2</v>
-      </c>
-      <c r="BH5">
-        <v>18930.3</v>
-      </c>
-      <c r="BI5">
-        <v>18971.9</v>
-      </c>
-      <c r="BJ5">
-        <v>18946</v>
-      </c>
-      <c r="BK5">
-        <v>18945</v>
-      </c>
-      <c r="BL5">
-        <v>18822.9</v>
-      </c>
-      <c r="BM5">
-        <v>18911.1</v>
-      </c>
-      <c r="BN5">
-        <v>127900</v>
-      </c>
-      <c r="BO5">
-        <v>129094</v>
-      </c>
-      <c r="BP5">
-        <v>127831</v>
-      </c>
-      <c r="BQ5">
-        <v>128709</v>
-      </c>
-      <c r="BR5">
-        <v>127388</v>
-      </c>
-      <c r="BS5">
-        <v>127861</v>
-      </c>
-      <c r="BT5">
-        <v>128492</v>
-      </c>
-      <c r="BU5">
-        <v>127720</v>
-      </c>
-      <c r="BV5">
-        <v>264965</v>
-      </c>
-      <c r="BW5">
-        <v>266638</v>
-      </c>
-      <c r="BX5">
-        <v>263151</v>
-      </c>
-      <c r="BY5">
-        <v>264752</v>
-      </c>
-      <c r="BZ5">
-        <v>263049</v>
-      </c>
-      <c r="CA5">
-        <v>266605</v>
-      </c>
-      <c r="CB5">
-        <v>267501</v>
-      </c>
-      <c r="CC5">
-        <v>263880</v>
-      </c>
-      <c r="CD5">
-        <v>279474</v>
-      </c>
-      <c r="CE5">
-        <v>281256</v>
-      </c>
-      <c r="CF5">
-        <v>277403</v>
-      </c>
-      <c r="CG5">
-        <v>279147</v>
-      </c>
-      <c r="CH5">
-        <v>277587</v>
-      </c>
-      <c r="CI5">
-        <v>281537</v>
-      </c>
-      <c r="CJ5">
-        <v>282132</v>
-      </c>
-      <c r="CK5">
-        <v>277788</v>
-      </c>
-      <c r="CL5">
-        <v>475160</v>
-      </c>
-      <c r="CM5">
-        <v>477725</v>
-      </c>
-      <c r="CN5">
-        <v>471621</v>
-      </c>
-      <c r="CO5">
-        <v>473716</v>
-      </c>
-      <c r="CP5">
-        <v>472124</v>
-      </c>
-      <c r="CQ5">
-        <v>479972</v>
-      </c>
-      <c r="CR5">
-        <v>481327</v>
-      </c>
-      <c r="CS5">
-        <v>474710</v>
-      </c>
-      <c r="CT5">
-        <v>970330</v>
-      </c>
-      <c r="CU5">
-        <v>976837</v>
-      </c>
-      <c r="CV5">
-        <v>966003</v>
-      </c>
-      <c r="CW5">
-        <v>971315</v>
-      </c>
-      <c r="CX5">
-        <v>964441</v>
-      </c>
-      <c r="CY5">
-        <v>982461</v>
-      </c>
-      <c r="CZ5">
-        <v>979610</v>
-      </c>
-      <c r="DA5">
-        <v>968359</v>
-      </c>
-      <c r="DB5">
-        <v>295.0526971835643</v>
-      </c>
-      <c r="DC5">
-        <v>27.11545439686649</v>
-      </c>
-      <c r="DD5">
-        <v>194.4957742234692</v>
-      </c>
-      <c r="DE5">
-        <v>41.13944994106159</v>
-      </c>
-      <c r="DF5">
-        <v>3.91755</v>
-      </c>
-      <c r="DG5">
-        <v>4.45414</v>
-      </c>
-      <c r="DH5">
-        <v>1.26483</v>
-      </c>
-      <c r="DI5">
-        <v>1.30041</v>
-      </c>
-      <c r="DJ5">
-        <v>1.31577</v>
-      </c>
-      <c r="DK5">
-        <v>1.27968</v>
-      </c>
-      <c r="DL5">
-        <v>4.47849</v>
-      </c>
-      <c r="DM5">
-        <v>3.96231</v>
-      </c>
-      <c r="DN5">
-        <v>3.91705</v>
-      </c>
-      <c r="DO5">
-        <v>4.45487</v>
-      </c>
-      <c r="DP5">
-        <v>1.26352</v>
-      </c>
-      <c r="DQ5">
-        <v>1.2999</v>
-      </c>
-      <c r="DR5">
-        <v>1.31677</v>
-      </c>
-      <c r="DS5">
-        <v>1.27885</v>
-      </c>
-      <c r="DT5">
-        <v>4.47913</v>
-      </c>
-      <c r="DU5">
-        <v>3.95893</v>
-      </c>
-      <c r="DV5">
-        <v>3.91729</v>
-      </c>
-      <c r="DW5">
-        <v>4.45627</v>
-      </c>
-      <c r="DX5">
-        <v>1.26437</v>
-      </c>
-      <c r="DY5">
-        <v>1.30144</v>
-      </c>
-      <c r="DZ5">
-        <v>1.31704</v>
-      </c>
-      <c r="EA5">
-        <v>1.27857</v>
-      </c>
-      <c r="EB5">
-        <v>4.47889</v>
-      </c>
-      <c r="EC5">
-        <v>3.95984</v>
-      </c>
-      <c r="ED5">
-        <v>3.92025</v>
-      </c>
-      <c r="EE5">
-        <v>4.45423</v>
-      </c>
-      <c r="EF5">
-        <v>1.26449</v>
-      </c>
-      <c r="EG5">
-        <v>1.29954</v>
-      </c>
-      <c r="EH5">
-        <v>1.31731</v>
-      </c>
-      <c r="EI5">
-        <v>1.27916</v>
-      </c>
-      <c r="EJ5">
-        <v>4.4797</v>
-      </c>
-      <c r="EK5">
-        <v>3.96124</v>
-      </c>
-      <c r="EL5">
-        <v>23.9685</v>
-      </c>
-      <c r="EM5">
-        <v>23.967</v>
-      </c>
-      <c r="EN5">
-        <v>19.9898</v>
-      </c>
-      <c r="EO5">
-        <v>20.2848</v>
-      </c>
-      <c r="EP5">
-        <v>20.3931</v>
-      </c>
-      <c r="EQ5">
-        <v>20.0888</v>
-      </c>
-      <c r="ER5">
-        <v>23.9766</v>
-      </c>
-      <c r="ES5">
-        <v>23.9792</v>
-      </c>
-      <c r="ET5">
-        <v>23.9497</v>
-      </c>
-      <c r="EU5">
-        <v>23.9438</v>
-      </c>
-      <c r="EV5">
-        <v>20.0039</v>
-      </c>
-      <c r="EW5">
-        <v>20.2469</v>
-      </c>
-      <c r="EX5">
-        <v>20.4344</v>
-      </c>
-      <c r="EY5">
-        <v>20.1005</v>
-      </c>
-      <c r="EZ5">
-        <v>23.9491</v>
-      </c>
-      <c r="FA5">
-        <v>23.9898</v>
-      </c>
-      <c r="FB5">
-        <v>23.962</v>
-      </c>
-      <c r="FC5">
-        <v>23.97</v>
-      </c>
-      <c r="FD5">
-        <v>19.987</v>
-      </c>
-      <c r="FE5">
-        <v>20.1549</v>
-      </c>
-      <c r="FF5">
-        <v>20.3931</v>
-      </c>
-      <c r="FG5">
-        <v>20.1013</v>
-      </c>
-      <c r="FH5">
-        <v>23.9865</v>
-      </c>
-      <c r="FI5">
-        <v>23.972</v>
-      </c>
-      <c r="FJ5">
-        <v>23.9569</v>
-      </c>
-      <c r="FK5">
-        <v>23.9762</v>
-      </c>
-      <c r="FL5">
-        <v>19.92</v>
-      </c>
-      <c r="FM5">
-        <v>20.2638</v>
-      </c>
-      <c r="FN5">
-        <v>20.4419</v>
-      </c>
-      <c r="FO5">
-        <v>20.1054</v>
-      </c>
-      <c r="FP5">
-        <v>23.9752</v>
-      </c>
-      <c r="FQ5">
-        <v>23.9631</v>
-      </c>
-      <c r="FR5">
-        <v>1492.89</v>
-      </c>
-      <c r="FS5">
-        <v>3224.92</v>
-      </c>
-      <c r="FT5">
-        <v>6714.5</v>
-      </c>
-      <c r="FU5">
-        <v>12871.93</v>
-      </c>
-      <c r="FV5">
-        <v>19990.78</v>
-      </c>
-      <c r="FW5">
-        <v>22172.25</v>
-      </c>
-      <c r="FX5">
-        <v>23073.19</v>
-      </c>
-      <c r="FY5">
-        <v>23527.09</v>
-      </c>
-      <c r="FZ5">
-        <v>23805.92</v>
-      </c>
-      <c r="GA5">
-        <v>23380.51</v>
-      </c>
-      <c r="GB5">
-        <v>23856.63</v>
-      </c>
-      <c r="GC5">
-        <v>23869.58</v>
-      </c>
-      <c r="GD5">
-        <v>23885.7</v>
-      </c>
-      <c r="GE5">
-        <v>23914.56</v>
-      </c>
-      <c r="GF5">
-        <v>23935.21</v>
-      </c>
-      <c r="GG5">
-        <v>1479.1</v>
-      </c>
-      <c r="GH5">
-        <v>3246.48</v>
-      </c>
-      <c r="GI5">
-        <v>6754.94</v>
-      </c>
-      <c r="GJ5">
-        <v>13101.09</v>
-      </c>
-      <c r="GK5">
-        <v>19945.81</v>
-      </c>
-      <c r="GL5">
-        <v>22631.62</v>
-      </c>
-      <c r="GM5">
-        <v>23381.58</v>
-      </c>
-      <c r="GN5">
-        <v>23515.29</v>
-      </c>
-      <c r="GO5">
-        <v>23756.01</v>
-      </c>
-      <c r="GP5">
-        <v>23875.91</v>
-      </c>
-      <c r="GQ5">
-        <v>23911.13</v>
-      </c>
-      <c r="GR5">
-        <v>23935.42</v>
-      </c>
-      <c r="GS5">
-        <v>23941.25</v>
-      </c>
-      <c r="GT5">
-        <v>23922.06</v>
-      </c>
-      <c r="GU5">
-        <v>23928.59</v>
-      </c>
-      <c r="GV5">
-        <v>1505.29</v>
-      </c>
-      <c r="GW5">
-        <v>3215.97</v>
-      </c>
-      <c r="GX5">
-        <v>6745.49</v>
-      </c>
-      <c r="GY5">
-        <v>11548.88</v>
-      </c>
-      <c r="GZ5">
-        <v>19432.15</v>
-      </c>
-      <c r="HA5">
-        <v>22765.51</v>
-      </c>
-      <c r="HB5">
-        <v>23235.07</v>
-      </c>
-      <c r="HC5">
-        <v>23620.08</v>
-      </c>
-      <c r="HD5">
-        <v>23759.08</v>
-      </c>
-      <c r="HE5">
-        <v>23859.82</v>
-      </c>
-      <c r="HF5">
-        <v>23775.01</v>
-      </c>
-      <c r="HG5">
-        <v>23885.96</v>
-      </c>
-      <c r="HH5">
-        <v>23894.73</v>
-      </c>
-      <c r="HI5">
-        <v>23909.98</v>
-      </c>
-      <c r="HJ5">
-        <v>23927.21</v>
-      </c>
-      <c r="HK5">
-        <v>1474.47</v>
-      </c>
-      <c r="HL5">
-        <v>3344.68</v>
-      </c>
-      <c r="HM5">
-        <v>6606.35</v>
-      </c>
-      <c r="HN5">
-        <v>12071.4</v>
-      </c>
-      <c r="HO5">
-        <v>18408.33</v>
-      </c>
-      <c r="HP5">
-        <v>20789.27</v>
-      </c>
-      <c r="HQ5">
-        <v>22469.43</v>
-      </c>
-      <c r="HR5">
-        <v>22777.1</v>
-      </c>
-      <c r="HS5">
-        <v>23461.03</v>
-      </c>
-      <c r="HT5">
-        <v>23397.19</v>
-      </c>
-      <c r="HU5">
-        <v>23526.55</v>
-      </c>
-      <c r="HV5">
-        <v>23854.76</v>
-      </c>
-      <c r="HW5">
-        <v>23862.23</v>
-      </c>
-      <c r="HX5">
-        <v>23931.15</v>
-      </c>
-      <c r="HY5">
-        <v>23924.44</v>
-      </c>
-      <c r="HZ5">
-        <v>1523.33</v>
-      </c>
-      <c r="IA5">
-        <v>3233.23</v>
-      </c>
-      <c r="IB5">
-        <v>6792.88</v>
-      </c>
-      <c r="IC5">
-        <v>12616.05</v>
-      </c>
-      <c r="ID5">
-        <v>19324.05</v>
-      </c>
-      <c r="IE5">
-        <v>22082.51</v>
-      </c>
-      <c r="IF5">
-        <v>23294.23</v>
-      </c>
-      <c r="IG5">
-        <v>23546.22</v>
-      </c>
-      <c r="IH5">
-        <v>23727.91</v>
-      </c>
-      <c r="II5">
-        <v>23843.93</v>
-      </c>
-      <c r="IJ5">
-        <v>23905.96</v>
-      </c>
-      <c r="IK5">
-        <v>23902.37</v>
-      </c>
-      <c r="IL5">
-        <v>23921.03</v>
-      </c>
-      <c r="IM5">
-        <v>23921.06</v>
-      </c>
-      <c r="IN5">
-        <v>23922.4</v>
-      </c>
-      <c r="IO5">
-        <v>1506.63</v>
-      </c>
-      <c r="IP5">
-        <v>3261.71</v>
-      </c>
-      <c r="IQ5">
-        <v>6752.38</v>
-      </c>
-      <c r="IR5">
-        <v>13592.41</v>
-      </c>
-      <c r="IS5">
-        <v>19989.31</v>
-      </c>
-      <c r="IT5">
-        <v>22560.57</v>
-      </c>
-      <c r="IU5">
-        <v>23389.29</v>
-      </c>
-      <c r="IV5">
-        <v>23503.32</v>
-      </c>
-      <c r="IW5">
-        <v>23741.51</v>
-      </c>
-      <c r="IX5">
-        <v>23866.43</v>
-      </c>
-      <c r="IY5">
-        <v>23898.95</v>
-      </c>
-      <c r="IZ5">
-        <v>23876.36</v>
-      </c>
-      <c r="JA5">
-        <v>23919.63</v>
-      </c>
-      <c r="JB5">
-        <v>23924.68</v>
-      </c>
-      <c r="JC5">
-        <v>23930.37</v>
-      </c>
-      <c r="JD5">
-        <v>1467.69</v>
-      </c>
-      <c r="JE5">
-        <v>3157.04</v>
-      </c>
-      <c r="JF5">
-        <v>6494.61</v>
-      </c>
-      <c r="JG5">
-        <v>12883.51</v>
-      </c>
-      <c r="JH5">
-        <v>19207.67</v>
-      </c>
-      <c r="JI5">
-        <v>22519.39</v>
-      </c>
-      <c r="JJ5">
-        <v>23323.46</v>
-      </c>
-      <c r="JK5">
-        <v>23523.6</v>
-      </c>
-      <c r="JL5">
-        <v>23626.67</v>
-      </c>
-      <c r="JM5">
-        <v>23836.99</v>
-      </c>
-      <c r="JN5">
-        <v>23904.51</v>
-      </c>
-      <c r="JO5">
-        <v>23919.07</v>
-      </c>
-      <c r="JP5">
-        <v>23943.82</v>
-      </c>
-      <c r="JQ5">
-        <v>23936.77</v>
-      </c>
-      <c r="JR5">
-        <v>23941.57</v>
-      </c>
-      <c r="JS5">
-        <v>1505.63</v>
-      </c>
-      <c r="JT5">
-        <v>3259.93</v>
-      </c>
-      <c r="JU5">
-        <v>6738.6</v>
-      </c>
-      <c r="JV5">
-        <v>13352.06</v>
-      </c>
-      <c r="JW5">
-        <v>19941.35</v>
-      </c>
-      <c r="JX5">
-        <v>22566.09</v>
-      </c>
-      <c r="JY5">
-        <v>23244.77</v>
-      </c>
-      <c r="JZ5">
-        <v>23377.67</v>
-      </c>
-      <c r="KA5">
-        <v>23736.17</v>
-      </c>
-      <c r="KB5">
-        <v>23829.25</v>
-      </c>
-      <c r="KC5">
-        <v>23879.6</v>
-      </c>
-      <c r="KD5">
-        <v>23895.1</v>
-      </c>
-      <c r="KE5">
-        <v>23930.64</v>
-      </c>
-      <c r="KF5">
-        <v>23845.63</v>
-      </c>
-      <c r="KG5">
-        <v>23896.94</v>
-      </c>
-      <c r="KH5">
-        <v>0</v>
-      </c>
-      <c r="KI5">
-        <v>0.00595</v>
-      </c>
-      <c r="KJ5">
-        <v>0.00595</v>
-      </c>
-      <c r="KK5">
-        <v>0.00557</v>
-      </c>
-      <c r="KL5">
-        <v>0.0055</v>
-      </c>
-      <c r="KM5">
-        <v>0.00592</v>
-      </c>
-      <c r="KN5">
-        <v>0.00589</v>
-      </c>
-      <c r="KO5">
-        <v>0.00572</v>
-      </c>
-      <c r="KP5">
-        <v>0.0059</v>
-      </c>
-      <c r="KQ5">
-        <v>0.01026</v>
-      </c>
-      <c r="KR5">
-        <v>0.01026</v>
-      </c>
-      <c r="KS5">
-        <v>0.01046</v>
-      </c>
-      <c r="KT5">
-        <v>0.01049</v>
-      </c>
-      <c r="KU5">
-        <v>0.01063</v>
-      </c>
-      <c r="KV5">
-        <v>0.01006</v>
-      </c>
-      <c r="KW5">
-        <v>0.01045</v>
-      </c>
-      <c r="KX5">
-        <v>0.01071</v>
-      </c>
-      <c r="KY5">
-        <v>48.07024518959224</v>
-      </c>
-      <c r="KZ5">
-        <v>4806.472441132788</v>
-      </c>
-      <c r="LA5">
-        <v>25.95312986522913</v>
-      </c>
-      <c r="LB5">
-        <v>9069.90809255883</v>
-      </c>
-      <c r="LC5">
-        <v>34.64499759674072</v>
-      </c>
-      <c r="LD5">
-        <v>0</v>
-      </c>
-      <c r="LE5">
-        <v>25.6</v>
-      </c>
-      <c r="LF5">
-        <v>25.8</v>
-      </c>
-      <c r="LG5">
-        <v>26</v>
-      </c>
-      <c r="LH5">
-        <v>26.1</v>
-      </c>
-      <c r="LI5">
-        <v>26.2</v>
-      </c>
-      <c r="LJ5">
-        <v>25.8</v>
-      </c>
-      <c r="LK5">
-        <v>25.3</v>
-      </c>
-      <c r="LL5">
-        <v>26.1</v>
-      </c>
-      <c r="LM5">
-        <v>24.3</v>
-      </c>
-      <c r="LN5">
-        <v>24.6</v>
-      </c>
-      <c r="LO5">
-        <v>24.5</v>
-      </c>
-      <c r="LP5">
-        <v>24.6</v>
-      </c>
-      <c r="LQ5">
-        <v>24.3</v>
-      </c>
-      <c r="LR5">
-        <v>24.3</v>
-      </c>
-      <c r="LS5">
-        <v>23.9</v>
-      </c>
-      <c r="LT5">
-        <v>24.6</v>
-      </c>
-      <c r="LU5">
-        <v>1118</v>
-      </c>
-      <c r="LV5">
-        <v>1114.6</v>
-      </c>
-      <c r="LW5">
-        <v>1119.7</v>
-      </c>
-      <c r="LX5">
-        <v>1121.9</v>
-      </c>
-      <c r="LY5">
-        <v>1109.7</v>
-      </c>
-      <c r="LZ5">
-        <v>1110.1</v>
-      </c>
-      <c r="MA5">
-        <v>1123.3</v>
-      </c>
-      <c r="MB5">
-        <v>1117.6</v>
-      </c>
-      <c r="MC5">
-        <v>0</v>
-      </c>
-      <c r="MD5">
-        <v>0</v>
-      </c>
-      <c r="ME5">
-        <v>37.84</v>
-      </c>
-      <c r="MF5">
-        <v>0</v>
-      </c>
-      <c r="MG5">
-        <v>0</v>
-      </c>
-      <c r="MH5">
-        <v>36.42</v>
-      </c>
-      <c r="MI5">
-        <v>0</v>
-      </c>
-      <c r="MJ5">
-        <v>0</v>
-      </c>
-      <c r="MK5">
-        <v>36.87</v>
-      </c>
-      <c r="ML5">
-        <v>0</v>
-      </c>
-      <c r="MM5">
-        <v>0</v>
-      </c>
-      <c r="MN5">
-        <v>35.83</v>
-      </c>
-      <c r="MO5">
-        <v>0.01</v>
-      </c>
-      <c r="MP5">
-        <v>0</v>
-      </c>
-      <c r="MQ5">
-        <v>36.91</v>
-      </c>
-      <c r="MR5">
-        <v>0.01</v>
-      </c>
-      <c r="MS5">
-        <v>0.01</v>
-      </c>
-      <c r="MT5">
-        <v>37.58</v>
-      </c>
-      <c r="MU5">
-        <v>0.02</v>
-      </c>
-      <c r="MV5">
-        <v>0.01</v>
-      </c>
-      <c r="MW5">
-        <v>36.98</v>
-      </c>
-      <c r="MX5">
-        <v>0.05</v>
-      </c>
-      <c r="MY5">
-        <v>0.03</v>
-      </c>
-      <c r="MZ5">
-        <v>36.93</v>
-      </c>
-      <c r="NA5">
-        <v>0.1</v>
-      </c>
-      <c r="NB5">
-        <v>0.06</v>
-      </c>
-      <c r="NC5">
-        <v>36.06</v>
-      </c>
-      <c r="ND5">
-        <v>0.19</v>
-      </c>
-      <c r="NE5">
-        <v>0.11</v>
-      </c>
-      <c r="NF5">
-        <v>37.2</v>
-      </c>
-      <c r="NG5">
-        <v>0.39</v>
-      </c>
-      <c r="NH5">
-        <v>0.22</v>
-      </c>
-      <c r="NI5">
-        <v>37.04</v>
-      </c>
-      <c r="NJ5">
-        <v>0.77</v>
-      </c>
-      <c r="NK5">
-        <v>0.44</v>
-      </c>
-      <c r="NL5">
-        <v>37.46</v>
-      </c>
-      <c r="NM5">
-        <v>1.52</v>
-      </c>
-      <c r="NN5">
-        <v>0.87</v>
-      </c>
-      <c r="NO5">
-        <v>37.64</v>
-      </c>
-      <c r="NP5">
-        <v>3</v>
-      </c>
-      <c r="NQ5">
-        <v>1.71</v>
-      </c>
-      <c r="NR5">
-        <v>38.22</v>
-      </c>
-      <c r="NS5">
-        <v>5.31</v>
-      </c>
-      <c r="NT5">
-        <v>3.04</v>
-      </c>
-      <c r="NU5">
-        <v>43.17</v>
-      </c>
-      <c r="NV5">
-        <v>9.5</v>
-      </c>
-      <c r="NW5">
-        <v>5.43</v>
-      </c>
-      <c r="NX5">
-        <v>48.29</v>
-      </c>
-      <c r="NY5">
-        <v>15.11</v>
-      </c>
-      <c r="NZ5">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="OA5">
-        <v>60.71</v>
-      </c>
-      <c r="OB5">
-        <v>24.1</v>
-      </c>
-      <c r="OC5">
-        <v>13.77</v>
-      </c>
-      <c r="OD5">
-        <v>76.13</v>
-      </c>
-      <c r="OE5">
-        <v>38.12</v>
-      </c>
-      <c r="OF5">
-        <v>21.78</v>
-      </c>
-      <c r="OG5">
-        <v>96.28</v>
-      </c>
-      <c r="OH5">
-        <v>65.75</v>
-      </c>
-      <c r="OI5">
-        <v>37.57</v>
-      </c>
-      <c r="OJ5">
-        <v>111.6</v>
-      </c>
-      <c r="OK5">
-        <v>89.51000000000001</v>
-      </c>
-      <c r="OL5">
-        <v>51.15</v>
-      </c>
-      <c r="OM5">
-        <v>164</v>
-      </c>
-      <c r="ON5">
-        <v>114.38</v>
-      </c>
-      <c r="OO5">
-        <v>65.36</v>
-      </c>
-      <c r="OP5">
-        <v>256.7</v>
-      </c>
-      <c r="OQ5">
-        <v>154.89</v>
-      </c>
-      <c r="OR5">
-        <v>88.51000000000001</v>
-      </c>
-      <c r="OS5">
-        <v>379.1</v>
-      </c>
-      <c r="OT5">
-        <v>200.01</v>
-      </c>
-      <c r="OU5">
-        <v>114.29</v>
-      </c>
-      <c r="OV5">
-        <v>587.2</v>
-      </c>
-      <c r="OW5">
-        <v>202.97</v>
-      </c>
-      <c r="OX5">
-        <v>115.98</v>
-      </c>
-      <c r="OY5">
-        <v>1157.2</v>
-      </c>
-      <c r="OZ5">
-        <v>221.82</v>
-      </c>
-      <c r="PA5">
-        <v>126.75</v>
-      </c>
-      <c r="PB5">
-        <v>2117.8</v>
-      </c>
-      <c r="PC5">
-        <v>224.54</v>
-      </c>
-      <c r="PD5">
-        <v>128.31</v>
-      </c>
-      <c r="PE5">
-        <v>4184.2</v>
-      </c>
-      <c r="PF5">
-        <v>230.15</v>
-      </c>
-      <c r="PG5">
-        <v>131.51</v>
-      </c>
-      <c r="PH5">
-        <v>8164.5</v>
-      </c>
-      <c r="PI5">
-        <v>231.89</v>
-      </c>
-      <c r="PJ5">
-        <v>132.51</v>
-      </c>
-      <c r="PK5">
-        <v>16207</v>
-      </c>
-      <c r="PL5">
-        <v>234.45</v>
-      </c>
-      <c r="PM5">
-        <v>133.97</v>
-      </c>
-      <c r="PN5">
-        <v>32059</v>
-      </c>
-      <c r="PO5">
-        <v>235.36</v>
-      </c>
-      <c r="PP5">
-        <v>134.49</v>
-      </c>
-      <c r="PQ5">
-        <v>63870</v>
-      </c>
-      <c r="PR5">
-        <v>253.9552273228765</v>
-      </c>
-      <c r="PS5">
-        <v>760.3348099129964</v>
-      </c>
-      <c r="PT5">
-        <v>200.0860618427396</v>
-      </c>
-      <c r="PU5">
-        <v>971.0651430922575</v>
-      </c>
-      <c r="PV5">
-        <v>389.0860509127378</v>
-      </c>
-      <c r="PW5">
-        <v>496.1174740929897</v>
-      </c>
-      <c r="PX5">
-        <v>308.6274107918143</v>
-      </c>
-      <c r="PY5">
-        <v>627.2056272195069</v>
-      </c>
-      <c r="PZ5">
-        <v>547.6558278314769</v>
-      </c>
-      <c r="QA5">
-        <v>352.0709954334822</v>
-      </c>
-      <c r="QB5">
-        <v>424.5809856802225</v>
-      </c>
-      <c r="QC5">
-        <v>454.8335998153649</v>
-      </c>
-      <c r="QD5">
-        <v>10.57441186904907</v>
-      </c>
-      <c r="QE5">
-        <v>10.08469676971436</v>
-      </c>
-      <c r="QF5">
-        <v>40.35283671692014</v>
-      </c>
-      <c r="QG5">
-        <v>796.3615936949874</v>
-      </c>
-      <c r="QH5">
-        <v>24.13351484574378</v>
-      </c>
-      <c r="QI5">
-        <v>1330.411361458461</v>
-      </c>
-      <c r="QJ5">
-        <v>55.46631093602628</v>
-      </c>
-      <c r="QK5">
-        <v>580.234107444399</v>
-      </c>
-      <c r="QL5">
-        <v>33.35228993091732</v>
-      </c>
-      <c r="QM5">
-        <v>962.5332023901524</v>
-      </c>
-      <c r="QN5">
-        <v>65.22519944701344</v>
-      </c>
-      <c r="QO5">
-        <v>493.4268638875934</v>
-      </c>
-      <c r="QP5">
-        <v>39.25287735182792</v>
-      </c>
-      <c r="QQ5">
-        <v>817.2008546147621</v>
-      </c>
-      <c r="QR5">
-        <v>74.93487105239183</v>
-      </c>
-      <c r="QS5">
-        <v>100</v>
-      </c>
-      <c r="QT5">
-        <v>45.20330624654889</v>
-      </c>
-      <c r="QU5">
-        <v>709.1127328377091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:463">
-      <c r="A6" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6">
-        <v>114.5916701061651</v>
-      </c>
-      <c r="C6">
-        <v>279.8794623591105</v>
-      </c>
-      <c r="D6">
-        <v>83.88951083179563</v>
-      </c>
-      <c r="E6">
-        <v>382.0672582741963</v>
-      </c>
-      <c r="F6">
-        <v>307.9359371913597</v>
-      </c>
-      <c r="G6">
-        <v>103.9487609741763</v>
-      </c>
-      <c r="H6">
-        <v>206.8114168941975</v>
-      </c>
-      <c r="I6">
-        <v>154.8408911711394</v>
-      </c>
-      <c r="J6">
-        <v>44.18220621437285</v>
-      </c>
-      <c r="K6">
-        <v>44.18221393893873</v>
-      </c>
-      <c r="L6">
-        <v>43.97014707808466</v>
-      </c>
-      <c r="M6">
-        <v>43.97014787559783</v>
-      </c>
-      <c r="N6">
-        <v>43.97017793166924</v>
-      </c>
-      <c r="O6">
-        <v>43.97015716062924</v>
-      </c>
-      <c r="P6">
-        <v>43.97016519828867</v>
-      </c>
-      <c r="Q6">
-        <v>44.17954447853845</v>
-      </c>
-      <c r="R6">
-        <v>137.0477370555818</v>
-      </c>
-      <c r="S6">
-        <v>137.0478344692856</v>
-      </c>
-      <c r="T6">
-        <v>137.04777220903</v>
-      </c>
-      <c r="U6">
-        <v>137.047796972638</v>
-      </c>
-      <c r="V6">
-        <v>137.0481367431466</v>
-      </c>
-      <c r="W6">
-        <v>137.0482198876743</v>
-      </c>
-      <c r="X6">
-        <v>137.0477532236691</v>
-      </c>
-      <c r="Y6">
-        <v>137.0478081606734</v>
-      </c>
-      <c r="Z6">
-        <v>150.6415554322302</v>
-      </c>
-      <c r="AA6">
-        <v>212.4701719242531</v>
-      </c>
-      <c r="AB6">
-        <v>145.30819572974</v>
-      </c>
-      <c r="AC6">
-        <v>220.293233730535</v>
-      </c>
-      <c r="AD6">
-        <v>182.9111778642982</v>
-      </c>
-      <c r="AE6">
-        <v>174.9742278232251</v>
-      </c>
-      <c r="AF6">
-        <v>176.3489063596353</v>
-      </c>
-      <c r="AG6">
-        <v>181.544657360339</v>
-      </c>
-      <c r="AH6">
-        <v>9031.23</v>
-      </c>
-      <c r="AI6">
-        <v>9040.85</v>
-      </c>
-      <c r="AJ6">
-        <v>9010.559999999999</v>
-      </c>
-      <c r="AK6">
-        <v>9041.26</v>
-      </c>
-      <c r="AL6">
-        <v>9039.190000000001</v>
-      </c>
-      <c r="AM6">
-        <v>9015.690000000001</v>
-      </c>
-      <c r="AN6">
-        <v>9022.190000000001</v>
-      </c>
-      <c r="AO6">
-        <v>9030.200000000001</v>
-      </c>
-      <c r="AP6">
-        <v>18362.1</v>
-      </c>
-      <c r="AQ6">
-        <v>18375.6</v>
-      </c>
-      <c r="AR6">
-        <v>18314.9</v>
-      </c>
-      <c r="AS6">
-        <v>18375.6</v>
-      </c>
-      <c r="AT6">
-        <v>18368.6</v>
-      </c>
-      <c r="AU6">
-        <v>18347.1</v>
-      </c>
-      <c r="AV6">
-        <v>18247.4</v>
-      </c>
-      <c r="AW6">
-        <v>18318.4</v>
-      </c>
-      <c r="AX6">
-        <v>33878</v>
-      </c>
-      <c r="AY6">
-        <v>33911.1</v>
-      </c>
-      <c r="AZ6">
-        <v>33769.3</v>
-      </c>
-      <c r="BA6">
-        <v>33909.9</v>
-      </c>
-      <c r="BB6">
-        <v>33896.5</v>
-      </c>
-      <c r="BC6">
-        <v>33798.1</v>
-      </c>
-      <c r="BD6">
-        <v>33647.3</v>
-      </c>
-      <c r="BE6">
-        <v>33764.8</v>
-      </c>
-      <c r="BF6">
-        <v>18963.6</v>
-      </c>
-      <c r="BG6">
-        <v>18924.2</v>
-      </c>
-      <c r="BH6">
-        <v>18930.3</v>
-      </c>
-      <c r="BI6">
-        <v>18971.9</v>
-      </c>
-      <c r="BJ6">
-        <v>18946</v>
-      </c>
-      <c r="BK6">
-        <v>18945</v>
-      </c>
-      <c r="BL6">
-        <v>18822.9</v>
-      </c>
-      <c r="BM6">
-        <v>18911.1</v>
-      </c>
-      <c r="BN6">
-        <v>127900</v>
-      </c>
-      <c r="BO6">
-        <v>129094</v>
-      </c>
-      <c r="BP6">
-        <v>127831</v>
-      </c>
-      <c r="BQ6">
-        <v>128709</v>
-      </c>
-      <c r="BR6">
-        <v>127388</v>
-      </c>
-      <c r="BS6">
-        <v>127861</v>
-      </c>
-      <c r="BT6">
-        <v>128492</v>
-      </c>
-      <c r="BU6">
-        <v>127720</v>
-      </c>
-      <c r="BV6">
-        <v>264965</v>
-      </c>
-      <c r="BW6">
-        <v>266638</v>
-      </c>
-      <c r="BX6">
-        <v>263151</v>
-      </c>
-      <c r="BY6">
-        <v>264752</v>
-      </c>
-      <c r="BZ6">
-        <v>263049</v>
-      </c>
-      <c r="CA6">
-        <v>266605</v>
-      </c>
-      <c r="CB6">
-        <v>267501</v>
-      </c>
-      <c r="CC6">
-        <v>263880</v>
-      </c>
-      <c r="CD6">
-        <v>279474</v>
-      </c>
-      <c r="CE6">
-        <v>281256</v>
-      </c>
-      <c r="CF6">
-        <v>277403</v>
-      </c>
-      <c r="CG6">
-        <v>279147</v>
-      </c>
-      <c r="CH6">
-        <v>277587</v>
-      </c>
-      <c r="CI6">
-        <v>281537</v>
-      </c>
-      <c r="CJ6">
-        <v>282132</v>
-      </c>
-      <c r="CK6">
-        <v>277788</v>
-      </c>
-      <c r="CL6">
-        <v>475160</v>
-      </c>
-      <c r="CM6">
-        <v>477725</v>
-      </c>
-      <c r="CN6">
-        <v>471621</v>
-      </c>
-      <c r="CO6">
-        <v>473716</v>
-      </c>
-      <c r="CP6">
-        <v>472124</v>
-      </c>
-      <c r="CQ6">
-        <v>479972</v>
-      </c>
-      <c r="CR6">
-        <v>481327</v>
-      </c>
-      <c r="CS6">
-        <v>474710</v>
-      </c>
-      <c r="CT6">
-        <v>970330</v>
-      </c>
-      <c r="CU6">
-        <v>976837</v>
-      </c>
-      <c r="CV6">
-        <v>966003</v>
-      </c>
-      <c r="CW6">
-        <v>971315</v>
-      </c>
-      <c r="CX6">
-        <v>964441</v>
-      </c>
-      <c r="CY6">
-        <v>982461</v>
-      </c>
-      <c r="CZ6">
-        <v>979610</v>
-      </c>
-      <c r="DA6">
-        <v>968359</v>
-      </c>
-      <c r="DB6">
-        <v>295.0526971835643</v>
-      </c>
-      <c r="DC6">
-        <v>27.11545439686649</v>
-      </c>
-      <c r="DD6">
-        <v>194.4957742234692</v>
-      </c>
-      <c r="DE6">
-        <v>41.13944994106159</v>
-      </c>
-      <c r="DF6">
-        <v>3.91755</v>
-      </c>
-      <c r="DG6">
-        <v>4.45414</v>
-      </c>
-      <c r="DH6">
-        <v>1.26483</v>
-      </c>
-      <c r="DI6">
-        <v>1.30041</v>
-      </c>
-      <c r="DJ6">
-        <v>1.31577</v>
-      </c>
-      <c r="DK6">
-        <v>1.27968</v>
-      </c>
-      <c r="DL6">
-        <v>4.47849</v>
-      </c>
-      <c r="DM6">
-        <v>3.96231</v>
-      </c>
-      <c r="DN6">
-        <v>3.91705</v>
-      </c>
-      <c r="DO6">
-        <v>4.45487</v>
-      </c>
-      <c r="DP6">
-        <v>1.26352</v>
-      </c>
-      <c r="DQ6">
-        <v>1.2999</v>
-      </c>
-      <c r="DR6">
-        <v>1.31677</v>
-      </c>
-      <c r="DS6">
-        <v>1.27885</v>
-      </c>
-      <c r="DT6">
-        <v>4.47913</v>
-      </c>
-      <c r="DU6">
-        <v>3.95893</v>
-      </c>
-      <c r="DV6">
-        <v>3.91729</v>
-      </c>
-      <c r="DW6">
-        <v>4.45627</v>
-      </c>
-      <c r="DX6">
-        <v>1.26437</v>
-      </c>
-      <c r="DY6">
-        <v>1.30144</v>
-      </c>
-      <c r="DZ6">
-        <v>1.31704</v>
-      </c>
-      <c r="EA6">
-        <v>1.27857</v>
-      </c>
-      <c r="EB6">
-        <v>4.47889</v>
-      </c>
-      <c r="EC6">
-        <v>3.95984</v>
-      </c>
-      <c r="ED6">
-        <v>3.92025</v>
-      </c>
-      <c r="EE6">
-        <v>4.45423</v>
-      </c>
-      <c r="EF6">
-        <v>1.26449</v>
-      </c>
-      <c r="EG6">
-        <v>1.29954</v>
-      </c>
-      <c r="EH6">
-        <v>1.31731</v>
-      </c>
-      <c r="EI6">
-        <v>1.27916</v>
-      </c>
-      <c r="EJ6">
-        <v>4.4797</v>
-      </c>
-      <c r="EK6">
-        <v>3.96124</v>
-      </c>
-      <c r="EL6">
-        <v>23.9685</v>
-      </c>
-      <c r="EM6">
-        <v>23.967</v>
-      </c>
-      <c r="EN6">
-        <v>19.9898</v>
-      </c>
-      <c r="EO6">
-        <v>20.2848</v>
-      </c>
-      <c r="EP6">
-        <v>20.3931</v>
-      </c>
-      <c r="EQ6">
-        <v>20.0888</v>
-      </c>
-      <c r="ER6">
-        <v>23.9766</v>
-      </c>
-      <c r="ES6">
-        <v>23.9792</v>
-      </c>
-      <c r="ET6">
-        <v>23.9497</v>
-      </c>
-      <c r="EU6">
-        <v>23.9438</v>
-      </c>
-      <c r="EV6">
-        <v>20.0039</v>
-      </c>
-      <c r="EW6">
-        <v>20.2469</v>
-      </c>
-      <c r="EX6">
-        <v>20.4344</v>
-      </c>
-      <c r="EY6">
-        <v>20.1005</v>
-      </c>
-      <c r="EZ6">
-        <v>23.9491</v>
-      </c>
-      <c r="FA6">
-        <v>23.9898</v>
-      </c>
-      <c r="FB6">
-        <v>23.962</v>
-      </c>
-      <c r="FC6">
-        <v>23.97</v>
-      </c>
-      <c r="FD6">
-        <v>19.987</v>
-      </c>
-      <c r="FE6">
-        <v>20.1549</v>
-      </c>
-      <c r="FF6">
-        <v>20.3931</v>
-      </c>
-      <c r="FG6">
-        <v>20.1013</v>
-      </c>
-      <c r="FH6">
-        <v>23.9865</v>
-      </c>
-      <c r="FI6">
-        <v>23.972</v>
-      </c>
-      <c r="FJ6">
-        <v>23.9569</v>
-      </c>
-      <c r="FK6">
-        <v>23.9762</v>
-      </c>
-      <c r="FL6">
-        <v>19.92</v>
-      </c>
-      <c r="FM6">
-        <v>20.2638</v>
-      </c>
-      <c r="FN6">
-        <v>20.4419</v>
-      </c>
-      <c r="FO6">
-        <v>20.1054</v>
-      </c>
-      <c r="FP6">
-        <v>23.9752</v>
-      </c>
-      <c r="FQ6">
-        <v>23.9631</v>
-      </c>
-      <c r="FR6">
-        <v>1492.89</v>
-      </c>
-      <c r="FS6">
-        <v>3224.92</v>
-      </c>
-      <c r="FT6">
-        <v>6714.5</v>
-      </c>
-      <c r="FU6">
-        <v>12871.93</v>
-      </c>
-      <c r="FV6">
-        <v>19990.78</v>
-      </c>
-      <c r="FW6">
-        <v>22172.25</v>
-      </c>
-      <c r="FX6">
-        <v>23073.19</v>
-      </c>
-      <c r="FY6">
-        <v>23527.09</v>
-      </c>
-      <c r="FZ6">
-        <v>23805.92</v>
-      </c>
-      <c r="GA6">
-        <v>23380.51</v>
-      </c>
-      <c r="GB6">
-        <v>23856.63</v>
-      </c>
-      <c r="GC6">
-        <v>23869.58</v>
-      </c>
-      <c r="GD6">
-        <v>23885.7</v>
-      </c>
-      <c r="GE6">
-        <v>23914.56</v>
-      </c>
-      <c r="GF6">
-        <v>23935.21</v>
-      </c>
-      <c r="GG6">
-        <v>1479.1</v>
-      </c>
-      <c r="GH6">
-        <v>3246.48</v>
-      </c>
-      <c r="GI6">
-        <v>6754.94</v>
-      </c>
-      <c r="GJ6">
-        <v>13101.09</v>
-      </c>
-      <c r="GK6">
-        <v>19945.81</v>
-      </c>
-      <c r="GL6">
-        <v>22631.62</v>
-      </c>
-      <c r="GM6">
-        <v>23381.58</v>
-      </c>
-      <c r="GN6">
-        <v>23515.29</v>
-      </c>
-      <c r="GO6">
-        <v>23756.01</v>
-      </c>
-      <c r="GP6">
-        <v>23875.91</v>
-      </c>
-      <c r="GQ6">
-        <v>23911.13</v>
-      </c>
-      <c r="GR6">
-        <v>23935.42</v>
-      </c>
-      <c r="GS6">
-        <v>23941.25</v>
-      </c>
-      <c r="GT6">
-        <v>23922.06</v>
-      </c>
-      <c r="GU6">
-        <v>23928.59</v>
-      </c>
-      <c r="GV6">
-        <v>1505.29</v>
-      </c>
-      <c r="GW6">
-        <v>3215.97</v>
-      </c>
-      <c r="GX6">
-        <v>6745.49</v>
-      </c>
-      <c r="GY6">
-        <v>11548.88</v>
-      </c>
-      <c r="GZ6">
-        <v>19432.15</v>
-      </c>
-      <c r="HA6">
-        <v>22765.51</v>
-      </c>
-      <c r="HB6">
-        <v>23235.07</v>
-      </c>
-      <c r="HC6">
-        <v>23620.08</v>
-      </c>
-      <c r="HD6">
-        <v>23759.08</v>
-      </c>
-      <c r="HE6">
-        <v>23859.82</v>
-      </c>
-      <c r="HF6">
-        <v>23775.01</v>
-      </c>
-      <c r="HG6">
-        <v>23885.96</v>
-      </c>
-      <c r="HH6">
-        <v>23894.73</v>
-      </c>
-      <c r="HI6">
-        <v>23909.98</v>
-      </c>
-      <c r="HJ6">
-        <v>23927.21</v>
-      </c>
-      <c r="HK6">
-        <v>1474.47</v>
-      </c>
-      <c r="HL6">
-        <v>3344.68</v>
-      </c>
-      <c r="HM6">
-        <v>6606.35</v>
-      </c>
-      <c r="HN6">
-        <v>12071.4</v>
-      </c>
-      <c r="HO6">
-        <v>18408.33</v>
-      </c>
-      <c r="HP6">
-        <v>20789.27</v>
-      </c>
-      <c r="HQ6">
-        <v>22469.43</v>
-      </c>
-      <c r="HR6">
-        <v>22777.1</v>
-      </c>
-      <c r="HS6">
-        <v>23461.03</v>
-      </c>
-      <c r="HT6">
-        <v>23397.19</v>
-      </c>
-      <c r="HU6">
-        <v>23526.55</v>
-      </c>
-      <c r="HV6">
-        <v>23854.76</v>
-      </c>
-      <c r="HW6">
-        <v>23862.23</v>
-      </c>
-      <c r="HX6">
-        <v>23931.15</v>
-      </c>
-      <c r="HY6">
-        <v>23924.44</v>
-      </c>
-      <c r="HZ6">
-        <v>1523.33</v>
-      </c>
-      <c r="IA6">
-        <v>3233.23</v>
-      </c>
-      <c r="IB6">
-        <v>6792.88</v>
-      </c>
-      <c r="IC6">
-        <v>12616.05</v>
-      </c>
-      <c r="ID6">
-        <v>19324.05</v>
-      </c>
-      <c r="IE6">
-        <v>22082.51</v>
-      </c>
-      <c r="IF6">
-        <v>23294.23</v>
-      </c>
-      <c r="IG6">
-        <v>23546.22</v>
-      </c>
-      <c r="IH6">
-        <v>23727.91</v>
-      </c>
-      <c r="II6">
-        <v>23843.93</v>
-      </c>
-      <c r="IJ6">
-        <v>23905.96</v>
-      </c>
-      <c r="IK6">
-        <v>23902.37</v>
-      </c>
-      <c r="IL6">
-        <v>23921.03</v>
-      </c>
-      <c r="IM6">
-        <v>23921.06</v>
-      </c>
-      <c r="IN6">
-        <v>23922.4</v>
-      </c>
-      <c r="IO6">
-        <v>1506.63</v>
-      </c>
-      <c r="IP6">
-        <v>3261.71</v>
-      </c>
-      <c r="IQ6">
-        <v>6752.38</v>
-      </c>
-      <c r="IR6">
-        <v>13592.41</v>
-      </c>
-      <c r="IS6">
-        <v>19989.31</v>
-      </c>
-      <c r="IT6">
-        <v>22560.57</v>
-      </c>
-      <c r="IU6">
-        <v>23389.29</v>
-      </c>
-      <c r="IV6">
-        <v>23503.32</v>
-      </c>
-      <c r="IW6">
-        <v>23741.51</v>
-      </c>
-      <c r="IX6">
-        <v>23866.43</v>
-      </c>
-      <c r="IY6">
-        <v>23898.95</v>
-      </c>
-      <c r="IZ6">
-        <v>23876.36</v>
-      </c>
-      <c r="JA6">
-        <v>23919.63</v>
-      </c>
-      <c r="JB6">
-        <v>23924.68</v>
-      </c>
-      <c r="JC6">
-        <v>23930.37</v>
-      </c>
-      <c r="JD6">
-        <v>1467.69</v>
-      </c>
-      <c r="JE6">
-        <v>3157.04</v>
-      </c>
-      <c r="JF6">
-        <v>6494.61</v>
-      </c>
-      <c r="JG6">
-        <v>12883.51</v>
-      </c>
-      <c r="JH6">
-        <v>19207.67</v>
-      </c>
-      <c r="JI6">
-        <v>22519.39</v>
-      </c>
-      <c r="JJ6">
-        <v>23323.46</v>
-      </c>
-      <c r="JK6">
-        <v>23523.6</v>
-      </c>
-      <c r="JL6">
-        <v>23626.67</v>
-      </c>
-      <c r="JM6">
-        <v>23836.99</v>
-      </c>
-      <c r="JN6">
-        <v>23904.51</v>
-      </c>
-      <c r="JO6">
-        <v>23919.07</v>
-      </c>
-      <c r="JP6">
-        <v>23943.82</v>
-      </c>
-      <c r="JQ6">
-        <v>23936.77</v>
-      </c>
-      <c r="JR6">
-        <v>23941.57</v>
-      </c>
-      <c r="JS6">
-        <v>1505.63</v>
-      </c>
-      <c r="JT6">
-        <v>3259.93</v>
-      </c>
-      <c r="JU6">
-        <v>6738.6</v>
-      </c>
-      <c r="JV6">
-        <v>13352.06</v>
-      </c>
-      <c r="JW6">
-        <v>19941.35</v>
-      </c>
-      <c r="JX6">
-        <v>22566.09</v>
-      </c>
-      <c r="JY6">
-        <v>23244.77</v>
-      </c>
-      <c r="JZ6">
-        <v>23377.67</v>
-      </c>
-      <c r="KA6">
-        <v>23736.17</v>
-      </c>
-      <c r="KB6">
-        <v>23829.25</v>
-      </c>
-      <c r="KC6">
-        <v>23879.6</v>
-      </c>
-      <c r="KD6">
-        <v>23895.1</v>
-      </c>
-      <c r="KE6">
-        <v>23930.64</v>
-      </c>
-      <c r="KF6">
-        <v>23845.63</v>
-      </c>
-      <c r="KG6">
-        <v>23896.94</v>
-      </c>
-      <c r="KH6">
-        <v>0</v>
-      </c>
-      <c r="KI6">
-        <v>0.00595</v>
-      </c>
-      <c r="KJ6">
-        <v>0.00595</v>
-      </c>
-      <c r="KK6">
-        <v>0.00557</v>
-      </c>
-      <c r="KL6">
-        <v>0.0055</v>
-      </c>
-      <c r="KM6">
-        <v>0.00592</v>
-      </c>
-      <c r="KN6">
-        <v>0.00589</v>
-      </c>
-      <c r="KO6">
-        <v>0.00572</v>
-      </c>
-      <c r="KP6">
-        <v>0.0059</v>
-      </c>
-      <c r="KQ6">
-        <v>0.01026</v>
-      </c>
-      <c r="KR6">
-        <v>0.01026</v>
-      </c>
-      <c r="KS6">
-        <v>0.01046</v>
-      </c>
-      <c r="KT6">
-        <v>0.01049</v>
-      </c>
-      <c r="KU6">
-        <v>0.01063</v>
-      </c>
-      <c r="KV6">
-        <v>0.01006</v>
-      </c>
-      <c r="KW6">
-        <v>0.01045</v>
-      </c>
-      <c r="KX6">
-        <v>0.01071</v>
-      </c>
-      <c r="KY6">
-        <v>48.07024518959224</v>
-      </c>
-      <c r="KZ6">
-        <v>4806.472441132788</v>
-      </c>
-      <c r="LA6">
-        <v>25.95312986522913</v>
-      </c>
-      <c r="LB6">
-        <v>9069.90809255883</v>
-      </c>
-      <c r="LC6">
-        <v>34.64499759674072</v>
-      </c>
-      <c r="LD6">
-        <v>0</v>
-      </c>
-      <c r="LE6">
-        <v>25.6</v>
-      </c>
-      <c r="LF6">
-        <v>25.8</v>
-      </c>
-      <c r="LG6">
-        <v>26</v>
-      </c>
-      <c r="LH6">
-        <v>26.1</v>
-      </c>
-      <c r="LI6">
-        <v>26.2</v>
-      </c>
-      <c r="LJ6">
-        <v>25.8</v>
-      </c>
-      <c r="LK6">
-        <v>25.3</v>
-      </c>
-      <c r="LL6">
-        <v>26.1</v>
-      </c>
-      <c r="LM6">
-        <v>24.3</v>
-      </c>
-      <c r="LN6">
-        <v>24.6</v>
-      </c>
-      <c r="LO6">
-        <v>24.5</v>
-      </c>
-      <c r="LP6">
-        <v>24.6</v>
-      </c>
-      <c r="LQ6">
-        <v>24.3</v>
-      </c>
-      <c r="LR6">
-        <v>24.3</v>
-      </c>
-      <c r="LS6">
-        <v>23.9</v>
-      </c>
-      <c r="LT6">
-        <v>24.6</v>
-      </c>
-      <c r="LU6">
-        <v>1118</v>
-      </c>
-      <c r="LV6">
-        <v>1114.6</v>
-      </c>
-      <c r="LW6">
-        <v>1119.7</v>
-      </c>
-      <c r="LX6">
-        <v>1121.9</v>
-      </c>
-      <c r="LY6">
-        <v>1109.7</v>
-      </c>
-      <c r="LZ6">
-        <v>1110.1</v>
-      </c>
-      <c r="MA6">
-        <v>1123.3</v>
-      </c>
-      <c r="MB6">
-        <v>1117.6</v>
-      </c>
-      <c r="MC6">
-        <v>0</v>
-      </c>
-      <c r="MD6">
-        <v>0</v>
-      </c>
-      <c r="ME6">
-        <v>37.84</v>
-      </c>
-      <c r="MF6">
-        <v>0</v>
-      </c>
-      <c r="MG6">
-        <v>0</v>
-      </c>
-      <c r="MH6">
-        <v>36.42</v>
-      </c>
-      <c r="MI6">
-        <v>0</v>
-      </c>
-      <c r="MJ6">
-        <v>0</v>
-      </c>
-      <c r="MK6">
-        <v>36.87</v>
-      </c>
-      <c r="ML6">
-        <v>0</v>
-      </c>
-      <c r="MM6">
-        <v>0</v>
-      </c>
-      <c r="MN6">
-        <v>35.83</v>
-      </c>
-      <c r="MO6">
-        <v>0.01</v>
-      </c>
-      <c r="MP6">
-        <v>0</v>
-      </c>
-      <c r="MQ6">
-        <v>36.91</v>
-      </c>
-      <c r="MR6">
-        <v>0.01</v>
-      </c>
-      <c r="MS6">
-        <v>0.01</v>
-      </c>
-      <c r="MT6">
-        <v>37.58</v>
-      </c>
-      <c r="MU6">
-        <v>0.02</v>
-      </c>
-      <c r="MV6">
-        <v>0.01</v>
-      </c>
-      <c r="MW6">
-        <v>36.98</v>
-      </c>
-      <c r="MX6">
-        <v>0.05</v>
-      </c>
-      <c r="MY6">
-        <v>0.03</v>
-      </c>
-      <c r="MZ6">
-        <v>36.93</v>
-      </c>
-      <c r="NA6">
-        <v>0.1</v>
-      </c>
-      <c r="NB6">
-        <v>0.06</v>
-      </c>
-      <c r="NC6">
-        <v>36.06</v>
-      </c>
-      <c r="ND6">
-        <v>0.19</v>
-      </c>
-      <c r="NE6">
-        <v>0.11</v>
-      </c>
-      <c r="NF6">
-        <v>37.2</v>
-      </c>
-      <c r="NG6">
-        <v>0.39</v>
-      </c>
-      <c r="NH6">
-        <v>0.22</v>
-      </c>
-      <c r="NI6">
-        <v>37.04</v>
-      </c>
-      <c r="NJ6">
-        <v>0.77</v>
-      </c>
-      <c r="NK6">
-        <v>0.44</v>
-      </c>
-      <c r="NL6">
-        <v>37.46</v>
-      </c>
-      <c r="NM6">
-        <v>1.52</v>
-      </c>
-      <c r="NN6">
-        <v>0.87</v>
-      </c>
-      <c r="NO6">
-        <v>37.64</v>
-      </c>
-      <c r="NP6">
-        <v>3</v>
-      </c>
-      <c r="NQ6">
-        <v>1.71</v>
-      </c>
-      <c r="NR6">
-        <v>38.22</v>
-      </c>
-      <c r="NS6">
-        <v>5.31</v>
-      </c>
-      <c r="NT6">
-        <v>3.04</v>
-      </c>
-      <c r="NU6">
-        <v>43.17</v>
-      </c>
-      <c r="NV6">
-        <v>9.5</v>
-      </c>
-      <c r="NW6">
-        <v>5.43</v>
-      </c>
-      <c r="NX6">
-        <v>48.29</v>
-      </c>
-      <c r="NY6">
-        <v>15.11</v>
-      </c>
-      <c r="NZ6">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="OA6">
-        <v>60.71</v>
-      </c>
-      <c r="OB6">
-        <v>24.1</v>
-      </c>
-      <c r="OC6">
-        <v>13.77</v>
-      </c>
-      <c r="OD6">
-        <v>76.13</v>
-      </c>
-      <c r="OE6">
-        <v>38.12</v>
-      </c>
-      <c r="OF6">
-        <v>21.78</v>
-      </c>
-      <c r="OG6">
-        <v>96.28</v>
-      </c>
-      <c r="OH6">
-        <v>65.75</v>
-      </c>
-      <c r="OI6">
-        <v>37.57</v>
-      </c>
-      <c r="OJ6">
-        <v>111.6</v>
-      </c>
-      <c r="OK6">
-        <v>89.51000000000001</v>
-      </c>
-      <c r="OL6">
-        <v>51.15</v>
-      </c>
-      <c r="OM6">
-        <v>164</v>
-      </c>
-      <c r="ON6">
-        <v>114.38</v>
-      </c>
-      <c r="OO6">
-        <v>65.36</v>
-      </c>
-      <c r="OP6">
-        <v>256.7</v>
-      </c>
-      <c r="OQ6">
-        <v>154.89</v>
-      </c>
-      <c r="OR6">
-        <v>88.51000000000001</v>
-      </c>
-      <c r="OS6">
-        <v>379.1</v>
-      </c>
-      <c r="OT6">
-        <v>200.01</v>
-      </c>
-      <c r="OU6">
-        <v>114.29</v>
-      </c>
-      <c r="OV6">
-        <v>587.2</v>
-      </c>
-      <c r="OW6">
-        <v>202.97</v>
-      </c>
-      <c r="OX6">
-        <v>115.98</v>
-      </c>
-      <c r="OY6">
-        <v>1157.2</v>
-      </c>
-      <c r="OZ6">
-        <v>221.82</v>
-      </c>
-      <c r="PA6">
-        <v>126.75</v>
-      </c>
-      <c r="PB6">
-        <v>2117.8</v>
-      </c>
-      <c r="PC6">
-        <v>224.54</v>
-      </c>
-      <c r="PD6">
-        <v>128.31</v>
-      </c>
-      <c r="PE6">
-        <v>4184.2</v>
-      </c>
-      <c r="PF6">
-        <v>230.15</v>
-      </c>
-      <c r="PG6">
-        <v>131.51</v>
-      </c>
-      <c r="PH6">
-        <v>8164.5</v>
-      </c>
-      <c r="PI6">
-        <v>231.89</v>
-      </c>
-      <c r="PJ6">
-        <v>132.51</v>
-      </c>
-      <c r="PK6">
-        <v>16207</v>
-      </c>
-      <c r="PL6">
-        <v>234.45</v>
-      </c>
-      <c r="PM6">
-        <v>133.97</v>
-      </c>
-      <c r="PN6">
-        <v>32059</v>
-      </c>
-      <c r="PO6">
-        <v>235.36</v>
-      </c>
-      <c r="PP6">
-        <v>134.49</v>
-      </c>
-      <c r="PQ6">
-        <v>63870</v>
-      </c>
-      <c r="PR6">
-        <v>253.9552273228765</v>
-      </c>
-      <c r="PS6">
-        <v>760.3348099129964</v>
-      </c>
-      <c r="PT6">
-        <v>200.0860618427396</v>
-      </c>
-      <c r="PU6">
-        <v>971.0651430922575</v>
-      </c>
-      <c r="PV6">
-        <v>389.0860509127378</v>
-      </c>
-      <c r="PW6">
-        <v>496.1174740929897</v>
-      </c>
-      <c r="PX6">
-        <v>308.6274107918143</v>
-      </c>
-      <c r="PY6">
-        <v>627.2056272195069</v>
-      </c>
-      <c r="PZ6">
-        <v>100</v>
-      </c>
-      <c r="QA6">
-        <v>352.0709954334822</v>
-      </c>
-      <c r="QB6">
-        <v>424.5809856802225</v>
-      </c>
-      <c r="QC6">
-        <v>100</v>
-      </c>
-      <c r="QD6">
-        <v>10.57441186904907</v>
-      </c>
-      <c r="QE6">
-        <v>10.08469676971436</v>
-      </c>
-      <c r="QF6">
-        <v>40.35283671692014</v>
-      </c>
-      <c r="QG6">
-        <v>796.3615936949874</v>
-      </c>
-      <c r="QH6">
-        <v>24.13351484574378</v>
-      </c>
-      <c r="QI6">
-        <v>1330.411361458461</v>
-      </c>
-      <c r="QJ6">
-        <v>55.46631093602628</v>
-      </c>
-      <c r="QK6">
-        <v>580.234107444399</v>
-      </c>
-      <c r="QL6">
-        <v>33.35228993091732</v>
-      </c>
-      <c r="QM6">
-        <v>962.5332023901524</v>
-      </c>
-      <c r="QN6">
-        <v>65.22519944701344</v>
-      </c>
-      <c r="QO6">
-        <v>493.4268638875934</v>
-      </c>
-      <c r="QP6">
-        <v>39.25287735182792</v>
-      </c>
-      <c r="QQ6">
-        <v>817.2008546147621</v>
-      </c>
-      <c r="QR6">
-        <v>74.93487105239183</v>
-      </c>
-      <c r="QS6">
-        <v>100</v>
-      </c>
-      <c r="QT6">
-        <v>45.20330624654889</v>
-      </c>
-      <c r="QU6">
-        <v>709.1127328377091</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10095,631 +7301,326 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>294</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AM1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>459</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" t="s">
         <v>469</v>
       </c>
-      <c r="C2" t="s">
-        <v>472</v>
-      </c>
       <c r="D2">
+        <v>15.77852348993289</v>
+      </c>
+      <c r="E2">
+        <v>-0.00167785234899322</v>
+      </c>
+      <c r="F2">
+        <v>-0.0654362416107382</v>
+      </c>
+      <c r="G2">
+        <v>-0.07718120805369133</v>
+      </c>
+      <c r="H2">
+        <v>-0.006711409395973172</v>
+      </c>
+      <c r="I2">
+        <v>-0.01174496644295298</v>
+      </c>
+      <c r="J2">
+        <v>-0.04026845637583889</v>
+      </c>
+      <c r="K2">
+        <v>-0.01006711409395976</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="M2">
         <v>0</v>
-      </c>
-      <c r="F2">
-        <v>15.77852348993289</v>
-      </c>
-      <c r="G2">
-        <v>-0.00167785234899322</v>
-      </c>
-      <c r="H2">
-        <v>-0.0654362416107382</v>
-      </c>
-      <c r="I2">
-        <v>-0.07718120805369133</v>
-      </c>
-      <c r="J2">
-        <v>-0.006711409395973172</v>
-      </c>
-      <c r="K2">
-        <v>-0.01174496644295298</v>
-      </c>
-      <c r="L2">
-        <v>-0.04026845637583889</v>
-      </c>
-      <c r="M2">
-        <v>-0.01006711409395976</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0.01949317738791428</v>
+      </c>
+      <c r="P2">
+        <v>0.0224171539961013</v>
+      </c>
+      <c r="Q2">
+        <v>0.03606237816764138</v>
+      </c>
+      <c r="R2">
+        <v>-0.01949317738791428</v>
+      </c>
+      <c r="S2">
+        <v>0.01851851851851844</v>
+      </c>
+      <c r="T2">
+        <v>0.04385964912280709</v>
+      </c>
+      <c r="U2">
         <v>0</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.01949317738791428</v>
-      </c>
-      <c r="R2">
-        <v>0.0224171539961013</v>
-      </c>
-      <c r="S2">
-        <v>0.03606237816764138</v>
-      </c>
-      <c r="T2">
-        <v>-0.01949317738791428</v>
-      </c>
-      <c r="U2">
-        <v>0.01851851851851844</v>
-      </c>
       <c r="V2">
-        <v>0.04385964912280709</v>
+        <v>0.01234567901234571</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.008230452674897091</v>
       </c>
       <c r="X2">
         <v>0.01234567901234571</v>
       </c>
       <c r="Y2">
-        <v>0.008230452674897091</v>
+        <v>0</v>
       </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>-0.01646090534979433</v>
+      </c>
+      <c r="AB2">
         <v>0.01234567901234571</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
+        <v>0.007812499999999972</v>
+      </c>
+      <c r="AE2">
+        <v>0.01562499999999994</v>
+      </c>
+      <c r="AF2">
+        <v>0.01953125</v>
+      </c>
+      <c r="AG2">
+        <v>0.02343749999999992</v>
+      </c>
+      <c r="AH2">
+        <v>0.007812499999999972</v>
+      </c>
+      <c r="AI2">
+        <v>-0.01171875000000003</v>
+      </c>
+      <c r="AJ2">
+        <v>0.01953125</v>
+      </c>
+      <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AC2">
-        <v>-0.01646090534979433</v>
-      </c>
-      <c r="AD2">
-        <v>0.01234567901234571</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0.007812499999999972</v>
-      </c>
-      <c r="AG2">
-        <v>0.01562499999999994</v>
-      </c>
-      <c r="AH2">
-        <v>0.01953125</v>
-      </c>
-      <c r="AI2">
-        <v>0.02343749999999992</v>
-      </c>
-      <c r="AJ2">
-        <v>0.007812499999999972</v>
-      </c>
-      <c r="AK2">
-        <v>-0.01171875000000003</v>
-      </c>
-      <c r="AL2">
-        <v>0.01953125</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" t="s">
         <v>470</v>
-      </c>
-      <c r="C3" t="s">
-        <v>473</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>-0.00167785234899322</v>
+      </c>
+      <c r="F3">
+        <v>-0.0654362416107382</v>
+      </c>
+      <c r="G3">
+        <v>-0.07718120805369133</v>
+      </c>
+      <c r="H3">
+        <v>-0.006711409395973172</v>
+      </c>
+      <c r="I3">
+        <v>-0.01174496644295298</v>
+      </c>
+      <c r="J3">
+        <v>-0.04026845637583889</v>
+      </c>
+      <c r="K3">
+        <v>-0.01006711409395976</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="M3">
         <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-0.00167785234899322</v>
-      </c>
-      <c r="H3">
-        <v>-0.0654362416107382</v>
-      </c>
-      <c r="I3">
-        <v>-0.07718120805369133</v>
-      </c>
-      <c r="J3">
-        <v>-0.006711409395973172</v>
-      </c>
-      <c r="K3">
-        <v>-0.01174496644295298</v>
-      </c>
-      <c r="L3">
-        <v>-0.04026845637583889</v>
-      </c>
-      <c r="M3">
-        <v>-0.01006711409395976</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.01949317738791428</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0224171539961013</v>
       </c>
       <c r="Q3">
-        <v>0.01949317738791428</v>
+        <v>0.03606237816764138</v>
       </c>
       <c r="R3">
-        <v>0.0224171539961013</v>
+        <v>-0.01949317738791428</v>
       </c>
       <c r="S3">
-        <v>0.03606237816764138</v>
+        <v>0.01851851851851844</v>
       </c>
       <c r="T3">
-        <v>-0.01949317738791428</v>
-      </c>
-      <c r="U3">
-        <v>0.01851851851851844</v>
-      </c>
-      <c r="V3">
         <v>0.04385964912280709</v>
       </c>
-      <c r="AM3">
+      <c r="AK3">
         <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53">
-      <c r="A4" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>-0.00167785234899322</v>
-      </c>
-      <c r="G4">
-        <v>-0.00167785234899322</v>
-      </c>
-      <c r="H4">
-        <v>-0.0654362416107382</v>
-      </c>
-      <c r="I4">
-        <v>-0.07718120805369133</v>
-      </c>
-      <c r="J4">
-        <v>-0.006711409395973172</v>
-      </c>
-      <c r="K4">
-        <v>-0.01174496644295298</v>
-      </c>
-      <c r="L4">
-        <v>-0.04026845637583889</v>
-      </c>
-      <c r="M4">
-        <v>-0.01006711409395976</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0.01949317738791428</v>
-      </c>
-      <c r="R4">
-        <v>0.0224171539961013</v>
-      </c>
-      <c r="S4">
-        <v>0.03606237816764138</v>
-      </c>
-      <c r="T4">
-        <v>-0.01949317738791428</v>
-      </c>
-      <c r="U4">
-        <v>0.01851851851851844</v>
-      </c>
-      <c r="V4">
-        <v>0.04385964912280709</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.01234567901234571</v>
-      </c>
-      <c r="Y4">
-        <v>0.008230452674897091</v>
-      </c>
-      <c r="Z4">
-        <v>0.01234567901234571</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>-0.01646090534979433</v>
-      </c>
-      <c r="AD4">
-        <v>0.01234567901234571</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.007812499999999972</v>
-      </c>
-      <c r="AG4">
-        <v>0.01562499999999994</v>
-      </c>
-      <c r="AH4">
-        <v>0.01953125</v>
-      </c>
-      <c r="AI4">
-        <v>0.02343749999999992</v>
-      </c>
-      <c r="AJ4">
-        <v>0.007812499999999972</v>
-      </c>
-      <c r="AK4">
-        <v>-0.01171875000000003</v>
-      </c>
-      <c r="AL4">
-        <v>0.01953125</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>-0.7801393739587533</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>-0.767338632312376</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA2:AA4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
+  <conditionalFormatting sqref="AA2:AA3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
       <formula>LEN(TRIM(AA2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
+  <conditionalFormatting sqref="AB2:AB3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
       <formula>LEN(TRIM(AB2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="61">
+  <conditionalFormatting sqref="AC2:AC3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="55">
       <formula>LEN(TRIM(AC2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD4">
+  <conditionalFormatting sqref="AD2:AD3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="59">
       <formula>LEN(TRIM(AD2))&gt;0</formula>
     </cfRule>
@@ -10727,365 +7628,237 @@
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE4">
+  <conditionalFormatting sqref="AE2:AE3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="61">
+      <formula>LEN(TRIM(AE2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="49">
+      <formula>LEN(TRIM(AF2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="37">
-      <formula>LEN(TRIM(AE2))&gt;0</formula>
+      <formula>LEN(TRIM(AG2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF4">
+  <conditionalFormatting sqref="AH2:AH3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="51">
-      <formula>LEN(TRIM(AF2))&gt;0</formula>
+      <formula>LEN(TRIM(AH2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG4">
+  <conditionalFormatting sqref="AI2:AI3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
+      <formula>LEN(TRIM(AI2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ2:AJ3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
+      <formula>LEN(TRIM(AJ2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK3">
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="greaterThan">
+      <formula>0.0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
+      <formula>LEN(TRIM(D2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
+      <formula>LEN(TRIM(F2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
+      <formula>LEN(TRIM(G2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
+      <formula>LEN(TRIM(H2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="13">
+      <formula>LEN(TRIM(J2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
+      <formula>LEN(TRIM(K2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="greaterThan">
+      <formula>0.0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(M2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
+      <formula>LEN(TRIM(N2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
+      <formula>LEN(TRIM(O2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+      <formula>LEN(TRIM(P2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(Q2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(R2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
+      <formula>LEN(TRIM(S2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
+      <formula>LEN(TRIM(T2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
+      <formula>LEN(TRIM(U2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="53">
+      <formula>LEN(TRIM(V2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="54" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="35">
-      <formula>LEN(TRIM(AG2))&gt;0</formula>
+      <formula>LEN(TRIM(W2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="36" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
-      <formula>LEN(TRIM(AH2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
-      <formula>LEN(TRIM(AI2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ4">
+  <conditionalFormatting sqref="X2:X3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="57">
-      <formula>LEN(TRIM(AJ2))&gt;0</formula>
+      <formula>LEN(TRIM(X2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="55">
-      <formula>LEN(TRIM(AK2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL4">
+  <conditionalFormatting sqref="Y2:Y3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="45">
-      <formula>LEN(TRIM(AL2))&gt;0</formula>
+      <formula>LEN(TRIM(Y2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="46" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM4">
-    <cfRule type="cellIs" dxfId="1" priority="98" operator="greaterThan">
-      <formula>0.0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="71">
-      <formula>LEN(TRIM(AN2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="72" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="75">
-      <formula>LEN(TRIM(AO2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="76" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AP4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="77">
-      <formula>LEN(TRIM(AP2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="79">
-      <formula>LEN(TRIM(AQ2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AR4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="69">
-      <formula>LEN(TRIM(AR2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="73">
-      <formula>LEN(TRIM(AS2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT2:AT4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="91">
-      <formula>LEN(TRIM(AT2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="92" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AU4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="85">
-      <formula>LEN(TRIM(AU2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="86" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AV4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="81">
-      <formula>LEN(TRIM(AV2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW2:AW4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="87">
-      <formula>LEN(TRIM(AW2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="88" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX2:AX4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="93">
-      <formula>LEN(TRIM(AX2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="94" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY2:AY4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="89">
-      <formula>LEN(TRIM(AY2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="90" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ2:AZ4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="95">
-      <formula>LEN(TRIM(AZ2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="96" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BA4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="83">
-      <formula>LEN(TRIM(BA2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="84" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="65">
-      <formula>LEN(TRIM(D2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="67">
-      <formula>LEN(TRIM(E2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
-      <formula>LEN(TRIM(F2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="13">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
-      <formula>LEN(TRIM(I2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(J2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
-      <formula>LEN(TRIM(K2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
-      <formula>LEN(TRIM(L2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
-      <formula>LEN(TRIM(M2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N4">
-    <cfRule type="cellIs" dxfId="1" priority="97" operator="greaterThan">
-      <formula>0.0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
-      <formula>LEN(TRIM(O2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(P2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
-      <formula>LEN(TRIM(Q2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
-      <formula>LEN(TRIM(R2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
-      <formula>LEN(TRIM(S2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
-      <formula>LEN(TRIM(T2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
-      <formula>LEN(TRIM(U2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
-      <formula>LEN(TRIM(V2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W4">
+  <conditionalFormatting sqref="Z2:Z3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="39">
-      <formula>LEN(TRIM(W2))&gt;0</formula>
+      <formula>LEN(TRIM(Z2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="49">
-      <formula>LEN(TRIM(X2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
-      <formula>LEN(TRIM(Y2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="53">
-      <formula>LEN(TRIM(Z2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/data/diagnosis_summary.xlsx
+++ b/tests/data/diagnosis_summary.xlsx
@@ -7597,119 +7597,119 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="55">
       <formula>LEN(TRIM(AA2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
-      <formula>LEN(TRIM(AB2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="55">
-      <formula>LEN(TRIM(AC2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
+      <formula>LEN(TRIM(AB2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="39">
+      <formula>LEN(TRIM(AC2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="59">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="35">
       <formula>LEN(TRIM(AD2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="45">
+      <formula>LEN(TRIM(AE2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
+      <formula>LEN(TRIM(AF2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
+      <formula>LEN(TRIM(AG2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="61">
-      <formula>LEN(TRIM(AE2))&gt;0</formula>
+      <formula>LEN(TRIM(AH2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="49">
-      <formula>LEN(TRIM(AF2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG3">
+  <conditionalFormatting sqref="AI2:AI3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="37">
-      <formula>LEN(TRIM(AG2))&gt;0</formula>
+      <formula>LEN(TRIM(AI2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
-      <formula>LEN(TRIM(AH2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
-      <formula>LEN(TRIM(AI2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
-      <formula>LEN(TRIM(AJ2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK3">
     <cfRule type="cellIs" dxfId="1" priority="66" operator="greaterThan">
       <formula>0.0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7722,119 +7722,119 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
+      <formula>LEN(TRIM(J2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="greaterThan">
+      <formula>0.0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="11">
-      <formula>LEN(TRIM(I2))&gt;0</formula>
+      <formula>LEN(TRIM(L2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(M2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+      <formula>LEN(TRIM(N2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
+      <formula>LEN(TRIM(O2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
+      <formula>LEN(TRIM(P2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
+      <formula>LEN(TRIM(Q2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="13">
-      <formula>LEN(TRIM(J2))&gt;0</formula>
+      <formula>LEN(TRIM(R2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
-      <formula>LEN(TRIM(K2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="greaterThan">
-      <formula>0.0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
-      <formula>LEN(TRIM(M2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
-      <formula>LEN(TRIM(N2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
-      <formula>LEN(TRIM(O2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
-      <formula>LEN(TRIM(P2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(Q2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(R2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
       <formula>LEN(TRIM(S2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
       <formula>LEN(TRIM(T2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
-      <formula>LEN(TRIM(U2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V3">
+  <conditionalFormatting sqref="U2:U3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="53">
-      <formula>LEN(TRIM(V2))&gt;0</formula>
+      <formula>LEN(TRIM(U2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="54" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
+      <formula>LEN(TRIM(V2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="49">
       <formula>LEN(TRIM(W2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7847,18 +7847,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
       <formula>LEN(TRIM(Y2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="59">
       <formula>LEN(TRIM(Z2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/data/diagnosis_summary.xlsx
+++ b/tests/data/diagnosis_summary.xlsx
@@ -7597,66 +7597,66 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AA2:AA3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="39">
+      <formula>LEN(TRIM(AA2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="55">
-      <formula>LEN(TRIM(AA2))&gt;0</formula>
+      <formula>LEN(TRIM(AB2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
-      <formula>LEN(TRIM(AB2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
       <formula>LEN(TRIM(AC2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="61">
+      <formula>LEN(TRIM(AD2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="35">
-      <formula>LEN(TRIM(AD2))&gt;0</formula>
+      <formula>LEN(TRIM(AE2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="36" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE3">
+  <conditionalFormatting sqref="AF2:AF3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="45">
-      <formula>LEN(TRIM(AE2))&gt;0</formula>
+      <formula>LEN(TRIM(AF2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="46" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
-      <formula>LEN(TRIM(AF2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="57">
       <formula>LEN(TRIM(AG2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="61">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
       <formula>LEN(TRIM(AH2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7674,10 +7674,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7690,50 +7690,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="13">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(H2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J2:J3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7743,26 +7743,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
       <formula>LEN(TRIM(L2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
       <formula>LEN(TRIM(M2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(N2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7775,90 +7775,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
       <formula>LEN(TRIM(P2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
-      <formula>LEN(TRIM(Q2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="13">
-      <formula>LEN(TRIM(R2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
-      <formula>LEN(TRIM(S2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
+      <formula>LEN(TRIM(Q2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+      <formula>LEN(TRIM(R2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
+      <formula>LEN(TRIM(S2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T2:T3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
       <formula>LEN(TRIM(T2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
+      <formula>LEN(TRIM(U2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
+      <formula>LEN(TRIM(V2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="53">
-      <formula>LEN(TRIM(U2))&gt;0</formula>
+      <formula>LEN(TRIM(W2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="54" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
-      <formula>LEN(TRIM(V2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3">
+  <conditionalFormatting sqref="X2:X3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="49">
-      <formula>LEN(TRIM(W2))&gt;0</formula>
+      <formula>LEN(TRIM(X2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="57">
-      <formula>LEN(TRIM(X2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="59">
       <formula>LEN(TRIM(Y2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="59">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
       <formula>LEN(TRIM(Z2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/data/diagnosis_summary.xlsx
+++ b/tests/data/diagnosis_summary.xlsx
@@ -1421,7 +1421,7 @@
     <t>KernelLaunch</t>
   </si>
   <si>
-    <t>FailedTest,Mem</t>
+    <t>FailedTest</t>
   </si>
   <si>
     <t>kernel-launch/event_overhead:0(B/L: 0.0060 VAL: 0.1000 VAR: 1577.85% Rule:lambda x:x&gt;0.05)</t>
@@ -7597,88 +7597,88 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AA2:AA3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
+      <formula>LEN(TRIM(AA2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="37">
+      <formula>LEN(TRIM(AB2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
+      <formula>LEN(TRIM(AC2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
+      <formula>LEN(TRIM(AD2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="59">
+      <formula>LEN(TRIM(AE2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
+      <formula>LEN(TRIM(AF2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="39">
-      <formula>LEN(TRIM(AA2))&gt;0</formula>
+      <formula>LEN(TRIM(AG2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="55">
-      <formula>LEN(TRIM(AB2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
-      <formula>LEN(TRIM(AC2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="61">
-      <formula>LEN(TRIM(AD2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE3">
+  <conditionalFormatting sqref="AH2:AH3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="35">
-      <formula>LEN(TRIM(AE2))&gt;0</formula>
+      <formula>LEN(TRIM(AH2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="36" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF3">
+  <conditionalFormatting sqref="AI2:AI3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="57">
+      <formula>LEN(TRIM(AI2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ2:AJ3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="45">
-      <formula>LEN(TRIM(AF2))&gt;0</formula>
+      <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="46" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="57">
-      <formula>LEN(TRIM(AG2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="63">
-      <formula>LEN(TRIM(AH2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="37">
-      <formula>LEN(TRIM(AI2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ3">
+  <conditionalFormatting sqref="AK2:AK3">
     <cfRule type="cellIs" dxfId="1" priority="66" operator="greaterThan">
       <formula>0.0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
-      <formula>LEN(TRIM(C2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
-      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
@@ -7690,95 +7690,95 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
+      <formula>LEN(TRIM(F2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
+      <formula>LEN(TRIM(G2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+      <formula>LEN(TRIM(H2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="15">
-      <formula>LEN(TRIM(F2))&gt;0</formula>
+      <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="13">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
-      <formula>LEN(TRIM(I2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="5">
-      <formula>LEN(TRIM(J2))&gt;0</formula>
+      <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="cellIs" dxfId="1" priority="65" operator="greaterThan">
       <formula>0.0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="17">
-      <formula>LEN(TRIM(L2))&gt;0</formula>
+      <formula>LEN(TRIM(M2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
-      <formula>LEN(TRIM(M2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N2:N3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
       <formula>LEN(TRIM(N2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
       <formula>LEN(TRIM(O2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(P2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7791,74 +7791,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
       <formula>LEN(TRIM(R2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="13">
       <formula>LEN(TRIM(S2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
+      <formula>LEN(TRIM(T2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="49">
+      <formula>LEN(TRIM(U2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="33">
-      <formula>LEN(TRIM(T2))&gt;0</formula>
+      <formula>LEN(TRIM(V2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
-      <formula>LEN(TRIM(U2))&gt;0</formula>
+  <conditionalFormatting sqref="W2:W3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="61">
+      <formula>LEN(TRIM(W2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
-      <formula>LEN(TRIM(V2))&gt;0</formula>
+  <conditionalFormatting sqref="X2:X3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="55">
+      <formula>LEN(TRIM(X2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3">
+  <conditionalFormatting sqref="Y2:Y3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="53">
-      <formula>LEN(TRIM(W2))&gt;0</formula>
+      <formula>LEN(TRIM(Y2))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="54" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="49">
-      <formula>LEN(TRIM(X2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="59">
-      <formula>LEN(TRIM(Y2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="lessThan">
-      <formula>-0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
       <formula>LEN(TRIM(Z2))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
